--- a/0-varios/Archivos-Office/Prods-Catálogo.xlsx
+++ b/0-varios/Archivos-Office/Prods-Catálogo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Documents\1. Proyectos Web\ELC-Peliculas\0-varios\1. Backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Documents\1. Proyectos Web\ELC-Peliculas\0-varios\Archivos-Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1923,7 +1923,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Catálogo.xlsx]Década!Tabla dinámica3</c:name>
+    <c:name>[Prods-Catálogo.xlsx]Década!Tabla dinámica3</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -4791,8 +4791,8 @@
   <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/0-varios/Archivos-Office/Prods-Catálogo.xlsx
+++ b/0-varios/Archivos-Office/Prods-Catálogo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Documents\1. Proyectos Web\ELC-Peliculas\0-varios\Archivos-Office\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\OneDrive\Documents\1. Proyectos Web\DADI\0-varios\Archivos-Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="21570" windowHeight="5490"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="21576" windowHeight="5496"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
@@ -1753,7 +1753,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="Arial"/>
@@ -1800,8 +1800,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1820,6 +1826,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1830,11 +1841,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1880,8 +1892,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bueno" xfId="2" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -4792,23 +4806,23 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="25" style="2" customWidth="1"/>
     <col min="3" max="3" width="35" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="14" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="2"/>
+    <col min="4" max="4" width="20.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.25" style="10" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.75" style="14" customWidth="1"/>
+    <col min="12" max="16384" width="11.375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.2">
@@ -4853,7 +4867,7 @@
       <c r="B2" t="s">
         <v>305</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="19" t="s">
         <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -4891,7 +4905,7 @@
       <c r="B3" t="s">
         <v>305</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="19" t="s">
         <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -4929,7 +4943,7 @@
       <c r="B4" t="s">
         <v>305</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="19" t="s">
         <v>100</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -4967,7 +4981,7 @@
       <c r="B5" t="s">
         <v>305</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -5005,7 +5019,7 @@
       <c r="B6" t="s">
         <v>306</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -5043,7 +5057,7 @@
       <c r="B7" t="s">
         <v>306</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="19" t="s">
         <v>83</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -5072,7 +5086,7 @@
       <c r="B8" t="s">
         <v>306</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="19" t="s">
         <v>84</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -5101,7 +5115,7 @@
       <c r="B9" t="s">
         <v>306</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="19" t="s">
         <v>85</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -5130,7 +5144,7 @@
       <c r="B10" t="s">
         <v>306</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="19" t="s">
         <v>87</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -5159,7 +5173,7 @@
       <c r="B11" t="s">
         <v>306</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="19" t="s">
         <v>86</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -5188,7 +5202,7 @@
       <c r="B12" t="s">
         <v>306</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="19" t="s">
         <v>88</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -5217,7 +5231,7 @@
       <c r="B13" t="s">
         <v>307</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="19" t="s">
         <v>70</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -5255,7 +5269,7 @@
       <c r="B14" t="s">
         <v>307</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="19" t="s">
         <v>71</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -5294,7 +5308,7 @@
         <v>307</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>236</v>
+        <v>532</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>215</v>
@@ -5310,7 +5324,7 @@
       </c>
       <c r="I15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1. ELC  3. Apariciones Marianas1858 - LourdesBernardita</v>
+        <v>1. ELC  3. Apariciones Marianas1858 - LourdesBernadette</v>
       </c>
       <c r="J15" s="15">
         <f t="shared" si="1"/>
@@ -9148,10 +9162,10 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -9328,14 +9342,14 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -9429,12 +9443,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="17"/>
+    <col min="1" max="16384" width="11.375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>564</v>
       </c>
@@ -9442,16 +9456,16 @@
         <v>563</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>348</v>
       </c>
       <c r="B2" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A2&amp;"*")</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>331</v>
       </c>
@@ -9460,7 +9474,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>328</v>
       </c>
@@ -9472,7 +9486,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>337</v>
       </c>
@@ -9481,7 +9495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>347</v>
       </c>
@@ -9490,7 +9504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>561</v>
       </c>
@@ -9499,7 +9513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>406</v>
       </c>
@@ -9508,7 +9522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>356</v>
       </c>
@@ -9517,7 +9531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>401</v>
       </c>
@@ -9526,7 +9540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>560</v>
       </c>
@@ -9535,7 +9549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>415</v>
       </c>
@@ -9544,7 +9558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>559</v>
       </c>
@@ -9553,7 +9567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>558</v>
       </c>
@@ -9562,7 +9576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>557</v>
       </c>
@@ -9571,7 +9585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>556</v>
       </c>
@@ -9580,7 +9594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>555</v>
       </c>
@@ -9589,7 +9603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>323</v>
       </c>
@@ -9598,7 +9612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>554</v>
       </c>
@@ -9607,16 +9621,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>236</v>
       </c>
       <c r="B20" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A20&amp;"*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>410</v>
       </c>
@@ -9625,7 +9639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>553</v>
       </c>
@@ -9634,7 +9648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>552</v>
       </c>
@@ -9643,7 +9657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>551</v>
       </c>
@@ -9652,7 +9666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>550</v>
       </c>
@@ -9661,7 +9675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>549</v>
       </c>
@@ -9670,7 +9684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>548</v>
       </c>
@@ -9679,7 +9693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>83</v>
       </c>
@@ -9688,7 +9702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>547</v>
       </c>
@@ -9697,7 +9711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>546</v>
       </c>
@@ -9706,7 +9720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>545</v>
       </c>
@@ -9715,7 +9729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>340</v>
       </c>
@@ -9724,7 +9738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>85</v>
       </c>
@@ -9733,7 +9747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
         <v>86</v>
       </c>
@@ -9742,7 +9756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
         <v>544</v>
       </c>
@@ -9751,7 +9765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>543</v>
       </c>
@@ -9760,7 +9774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>542</v>
       </c>
@@ -9769,7 +9783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>541</v>
       </c>
@@ -9778,7 +9792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>540</v>
       </c>
@@ -9787,7 +9801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>539</v>
       </c>
@@ -9796,7 +9810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
         <v>538</v>
       </c>
@@ -9805,7 +9819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
         <v>537</v>
       </c>
@@ -9814,7 +9828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>536</v>
       </c>
@@ -9823,7 +9837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
         <v>535</v>
       </c>
@@ -9832,7 +9846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
         <v>534</v>
       </c>
@@ -9841,7 +9855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="18" t="s">
         <v>533</v>
       </c>
@@ -9850,7 +9864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="18" t="s">
         <v>291</v>
       </c>
@@ -9859,7 +9873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="18" t="s">
         <v>26</v>
       </c>
@@ -9868,7 +9882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
         <v>59</v>
       </c>
@@ -9877,7 +9891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
         <v>126</v>
       </c>
@@ -9886,16 +9900,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
         <v>532</v>
       </c>
       <c r="B51" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A51&amp;"*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="18" t="s">
         <v>531</v>
       </c>
@@ -9904,7 +9918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
         <v>530</v>
       </c>
@@ -9913,7 +9927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="18" t="s">
         <v>163</v>
       </c>
@@ -9922,7 +9936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="18" t="s">
         <v>529</v>
       </c>
@@ -9931,7 +9945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
         <v>528</v>
       </c>
@@ -9940,7 +9954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
         <v>527</v>
       </c>
@@ -9949,7 +9963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
         <v>526</v>
       </c>
@@ -9958,7 +9972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
         <v>525</v>
       </c>
@@ -9967,7 +9981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
         <v>524</v>
       </c>
@@ -9976,7 +9990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="18" t="s">
         <v>523</v>
       </c>
@@ -9985,7 +9999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="18" t="s">
         <v>522</v>
       </c>
@@ -9994,7 +10008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="18" t="s">
         <v>521</v>
       </c>
@@ -10003,7 +10017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="18" t="s">
         <v>520</v>
       </c>
@@ -10012,7 +10026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="18" t="s">
         <v>519</v>
       </c>
@@ -10021,7 +10035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="18" t="s">
         <v>518</v>
       </c>
@@ -10030,7 +10044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="18" t="s">
         <v>517</v>
       </c>
@@ -10039,7 +10053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="18" t="s">
         <v>516</v>
       </c>
@@ -10048,7 +10062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="18" t="s">
         <v>515</v>
       </c>
@@ -10057,7 +10071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="18" t="s">
         <v>514</v>
       </c>
@@ -10066,7 +10080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="18" t="s">
         <v>513</v>
       </c>
@@ -10075,7 +10089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="18" t="s">
         <v>512</v>
       </c>
@@ -10084,7 +10098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="18" t="s">
         <v>511</v>
       </c>
@@ -10093,7 +10107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="18" t="s">
         <v>510</v>
       </c>
@@ -10102,7 +10116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="18" t="s">
         <v>301</v>
       </c>
@@ -10111,7 +10125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="18" t="s">
         <v>509</v>
       </c>
@@ -10120,7 +10134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="18" t="s">
         <v>128</v>
       </c>
@@ -10129,7 +10143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="18" t="s">
         <v>508</v>
       </c>
@@ -10138,7 +10152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="18" t="s">
         <v>507</v>
       </c>
@@ -10147,7 +10161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="18" t="s">
         <v>506</v>
       </c>
@@ -10156,7 +10170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="18" t="s">
         <v>505</v>
       </c>
@@ -10165,7 +10179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="18" t="s">
         <v>504</v>
       </c>
@@ -10174,7 +10188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="18" t="s">
         <v>503</v>
       </c>
@@ -10183,7 +10197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="18" t="s">
         <v>502</v>
       </c>
@@ -10192,7 +10206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="18" t="s">
         <v>501</v>
       </c>
@@ -10201,7 +10215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="18" t="s">
         <v>500</v>
       </c>
@@ -10210,7 +10224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="18" t="s">
         <v>499</v>
       </c>
@@ -10219,7 +10233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="18" t="s">
         <v>498</v>
       </c>
@@ -10228,7 +10242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="18" t="s">
         <v>497</v>
       </c>
@@ -10237,7 +10251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="18" t="s">
         <v>496</v>
       </c>
@@ -10246,7 +10260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="18" t="s">
         <v>495</v>
       </c>
@@ -10255,7 +10269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="18" t="s">
         <v>494</v>
       </c>
@@ -10264,7 +10278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="18" t="s">
         <v>493</v>
       </c>
@@ -10273,7 +10287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="18" t="s">
         <v>492</v>
       </c>
@@ -10282,7 +10296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="18" t="s">
         <v>491</v>
       </c>
@@ -10291,7 +10305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="18" t="s">
         <v>490</v>
       </c>
@@ -10300,7 +10314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="18" t="s">
         <v>489</v>
       </c>
@@ -10309,7 +10323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="18" t="s">
         <v>488</v>
       </c>
@@ -10318,7 +10332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="18" t="s">
         <v>487</v>
       </c>
@@ -10327,7 +10341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="18" t="s">
         <v>486</v>
       </c>
@@ -10336,7 +10350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="18" t="s">
         <v>485</v>
       </c>
@@ -10345,7 +10359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="18" t="s">
         <v>484</v>
       </c>
@@ -10354,7 +10368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="18" t="s">
         <v>483</v>
       </c>
@@ -10363,7 +10377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="18" t="s">
         <v>482</v>
       </c>
@@ -10372,7 +10386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="18" t="s">
         <v>28</v>
       </c>
@@ -10381,7 +10395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="18" t="s">
         <v>481</v>
       </c>
@@ -10390,7 +10404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="18" t="s">
         <v>480</v>
       </c>
@@ -10399,7 +10413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="18" t="s">
         <v>12</v>
       </c>
@@ -10408,7 +10422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="18" t="s">
         <v>479</v>
       </c>
@@ -10417,7 +10431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="18" t="s">
         <v>478</v>
       </c>
@@ -10426,7 +10440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="18" t="s">
         <v>477</v>
       </c>
@@ -10435,7 +10449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="18" t="s">
         <v>476</v>
       </c>
@@ -10444,7 +10458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="18" t="s">
         <v>475</v>
       </c>
@@ -10453,7 +10467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="18" t="s">
         <v>474</v>
       </c>
@@ -10462,7 +10476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="18" t="s">
         <v>473</v>
       </c>
@@ -10471,7 +10485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="18" t="s">
         <v>472</v>
       </c>
@@ -10480,7 +10494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="18" t="s">
         <v>471</v>
       </c>
@@ -10489,7 +10503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="18" t="s">
         <v>470</v>
       </c>
@@ -10498,7 +10512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="18" t="s">
         <v>469</v>
       </c>
@@ -10507,7 +10521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="18" t="s">
         <v>468</v>
       </c>
@@ -10516,7 +10530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="18" t="s">
         <v>467</v>
       </c>
@@ -10525,7 +10539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="18" t="s">
         <v>466</v>
       </c>
@@ -10534,7 +10548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="18" t="s">
         <v>465</v>
       </c>
@@ -10543,7 +10557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="18" t="s">
         <v>464</v>
       </c>
@@ -10552,7 +10566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="18" t="s">
         <v>463</v>
       </c>
@@ -10561,7 +10575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="18" t="s">
         <v>462</v>
       </c>
@@ -10570,7 +10584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="18" t="s">
         <v>461</v>
       </c>
@@ -10579,7 +10593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="18" t="s">
         <v>460</v>
       </c>
@@ -10588,7 +10602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="18" t="s">
         <v>459</v>
       </c>
@@ -10597,7 +10611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="18" t="s">
         <v>458</v>
       </c>
@@ -10606,7 +10620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="18" t="s">
         <v>457</v>
       </c>
@@ -10615,7 +10629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="18" t="s">
         <v>456</v>
       </c>
@@ -10624,7 +10638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="18" t="s">
         <v>455</v>
       </c>
@@ -10633,7 +10647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="18" t="s">
         <v>454</v>
       </c>
@@ -10642,7 +10656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="18" t="s">
         <v>453</v>
       </c>
@@ -10651,7 +10665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="18" t="s">
         <v>452</v>
       </c>
@@ -10660,7 +10674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="18" t="s">
         <v>451</v>
       </c>
@@ -10669,7 +10683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="18" t="s">
         <v>450</v>
       </c>
@@ -10678,7 +10692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="18" t="s">
         <v>449</v>
       </c>
@@ -10687,7 +10701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="18" t="s">
         <v>448</v>
       </c>
@@ -10696,7 +10710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="18" t="s">
         <v>447</v>
       </c>
@@ -10705,7 +10719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="18" t="s">
         <v>446</v>
       </c>
@@ -10714,7 +10728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="18" t="s">
         <v>445</v>
       </c>
@@ -10723,7 +10737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="18" t="s">
         <v>43</v>
       </c>
@@ -10732,7 +10746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="18" t="s">
         <v>444</v>
       </c>
@@ -10741,7 +10755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="18" t="s">
         <v>443</v>
       </c>
@@ -10750,7 +10764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="18" t="s">
         <v>442</v>
       </c>
@@ -10759,7 +10773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="18" t="s">
         <v>441</v>
       </c>
@@ -10768,7 +10782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="18" t="s">
         <v>440</v>
       </c>
@@ -10777,7 +10791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="18" t="s">
         <v>439</v>
       </c>
@@ -10786,7 +10800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="18" t="s">
         <v>438</v>
       </c>
@@ -10795,7 +10809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="18" t="s">
         <v>437</v>
       </c>
@@ -10804,7 +10818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="18" t="s">
         <v>436</v>
       </c>
@@ -10813,7 +10827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="18" t="s">
         <v>435</v>
       </c>
@@ -10822,7 +10836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="18" t="s">
         <v>434</v>
       </c>
@@ -10831,7 +10845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="18" t="s">
         <v>433</v>
       </c>
@@ -10840,7 +10854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="18" t="s">
         <v>432</v>
       </c>
@@ -10849,7 +10863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="18" t="s">
         <v>431</v>
       </c>
@@ -10858,7 +10872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="18" t="s">
         <v>430</v>
       </c>
@@ -10867,7 +10881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="18" t="s">
         <v>429</v>
       </c>
@@ -10876,7 +10890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="18" t="s">
         <v>428</v>
       </c>
@@ -10885,7 +10899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="18" t="s">
         <v>427</v>
       </c>
@@ -10894,7 +10908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="18" t="s">
         <v>426</v>
       </c>
@@ -10903,7 +10917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="18" t="s">
         <v>425</v>
       </c>
@@ -10912,7 +10926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="18" t="s">
         <v>424</v>
       </c>
@@ -10921,7 +10935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="18" t="s">
         <v>54</v>
       </c>
@@ -10930,7 +10944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="18" t="s">
         <v>88</v>
       </c>
@@ -10939,7 +10953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="18" t="s">
         <v>423</v>
       </c>
@@ -10948,7 +10962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="18" t="s">
         <v>422</v>
       </c>
@@ -10957,7 +10971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="18" t="s">
         <v>421</v>
       </c>
@@ -10966,7 +10980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="18" t="s">
         <v>72</v>
       </c>
@@ -10975,670 +10989,670 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" s="18"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" s="18" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" s="18" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" s="18" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" s="18" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" s="18" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" s="18" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" s="18" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" s="18" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" s="18" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" s="18" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" s="18" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" s="18" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" s="18" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" s="18" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" s="18" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" s="18" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" s="18" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" s="18" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" s="18" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" s="18" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" s="18" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" s="18" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" s="18" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" s="18" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" s="18" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" s="18" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" s="18" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321" s="18" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" s="18" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" s="18" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" s="18" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" s="18" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" s="18" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327" s="18" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" s="18" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" s="18" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330" s="18" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332" s="18" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333" s="18" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334" s="18" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" s="18" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336" s="18" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" s="18" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" s="18" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339" s="18" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" s="18" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" s="18" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342" s="18" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343" s="18" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344" s="18" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345" s="18" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346" s="18" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347" s="18" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348" s="18" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349" s="18" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350" s="18" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351" s="18" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A352" s="18" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353" s="18" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354" s="18" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A355" s="18" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356" s="18" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357" s="18" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358" s="18" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359" s="18" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A360" s="18" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361" s="18" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362" s="18" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363" s="18" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364" s="18" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365" s="18" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A366" s="18" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367" s="18" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A368" s="18" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A369" s="18" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A370" s="18" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A371" s="18" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A372" s="18" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373" s="18" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A374" s="18" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A375" s="18" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A376" s="18" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A377" s="18" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A378" s="18" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A379" s="18" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A380" s="18" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A381" s="18" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A382" s="18" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A383" s="18" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A384" s="18" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385" s="18" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A386" s="18" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387" s="18" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A388" s="18" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A389" s="18" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A390" s="18" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A391" s="18" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A392" s="18" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A393" s="18" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394" s="18" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A395" s="18" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A396" s="18" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A397" s="18" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A398" s="18" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A399" s="18" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A400" s="18" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A401" s="18" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A402" s="18" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A403" s="18" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A404" s="18" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A405" s="18" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A406" s="18" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A407" s="18" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A408" s="18" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A409" s="18" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A410" s="18" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A411" s="18" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A412" s="18" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A413" s="18" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A414" s="18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A415" s="18" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A416" s="18" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A417" s="18" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A418" s="18" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A419" s="18" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A420" s="18" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A421" s="18" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A422" s="18" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A423" s="18" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A424" s="18" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A425" s="18" t="s">
         <v>319</v>
       </c>

--- a/0-varios/Archivos-Office/Prods-Catálogo.xlsx
+++ b/0-varios/Archivos-Office/Prods-Catálogo.xlsx
@@ -4806,7 +4806,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -5307,7 +5307,7 @@
       <c r="B15" t="s">
         <v>307</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="19" t="s">
         <v>532</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -5342,7 +5342,7 @@
       <c r="B16" t="s">
         <v>307</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -5380,7 +5380,7 @@
       <c r="B17" t="s">
         <v>307</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="19" t="s">
         <v>89</v>
       </c>
       <c r="D17" s="2" t="s">

--- a/0-varios/Archivos-Office/Prods-Catálogo.xlsx
+++ b/0-varios/Archivos-Office/Prods-Catálogo.xlsx
@@ -4806,7 +4806,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -5418,7 +5418,7 @@
       <c r="B18" t="s">
         <v>307</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="19" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">

--- a/0-varios/Archivos-Office/Prods-Catálogo.xlsx
+++ b/0-varios/Archivos-Office/Prods-Catálogo.xlsx
@@ -4806,7 +4806,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -5456,7 +5456,7 @@
       <c r="B19" t="s">
         <v>308</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="19" t="s">
         <v>63</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -5494,7 +5494,7 @@
       <c r="B20" t="s">
         <v>308</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="19" t="s">
         <v>168</v>
       </c>
       <c r="E20" s="13" t="s">
@@ -5529,7 +5529,7 @@
       <c r="B21" t="s">
         <v>308</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="19" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -5567,7 +5567,7 @@
       <c r="B22" t="s">
         <v>308</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="2" t="s">

--- a/0-varios/Archivos-Office/Prods-Catálogo.xlsx
+++ b/0-varios/Archivos-Office/Prods-Catálogo.xlsx
@@ -4806,7 +4806,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -5605,7 +5605,7 @@
       <c r="B23" t="s">
         <v>308</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="19" t="s">
         <v>90</v>
       </c>
       <c r="D23" s="2" t="s">

--- a/0-varios/Archivos-Office/Prods-Catálogo.xlsx
+++ b/0-varios/Archivos-Office/Prods-Catálogo.xlsx
@@ -4806,7 +4806,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -5643,7 +5643,7 @@
       <c r="B24" t="s">
         <v>308</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="19" t="s">
         <v>237</v>
       </c>
       <c r="E24" s="2" t="s">

--- a/0-varios/Archivos-Office/Prods-Catálogo.xlsx
+++ b/0-varios/Archivos-Office/Prods-Catálogo.xlsx
@@ -4805,8 +4805,8 @@
   <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -5678,7 +5678,7 @@
       <c r="B25" t="s">
         <v>308</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="19" t="s">
         <v>315</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -5710,7 +5710,7 @@
       <c r="B26" t="s">
         <v>308</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="19" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="2" t="s">

--- a/0-varios/Archivos-Office/Prods-Catálogo.xlsx
+++ b/0-varios/Archivos-Office/Prods-Catálogo.xlsx
@@ -4805,8 +4805,8 @@
   <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C131" sqref="C131"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -5748,7 +5748,7 @@
       <c r="B27" t="s">
         <v>308</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="19" t="s">
         <v>158</v>
       </c>
       <c r="D27" s="2" t="s">

--- a/0-varios/Archivos-Office/Prods-Catálogo.xlsx
+++ b/0-varios/Archivos-Office/Prods-Catálogo.xlsx
@@ -4806,7 +4806,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -5786,7 +5786,7 @@
       <c r="B28" t="s">
         <v>308</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="19" t="s">
         <v>161</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -5824,7 +5824,7 @@
       <c r="B29" t="s">
         <v>308</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="19" t="s">
         <v>162</v>
       </c>
       <c r="D29" s="2" t="s">

--- a/0-varios/Archivos-Office/Prods-Catálogo.xlsx
+++ b/0-varios/Archivos-Office/Prods-Catálogo.xlsx
@@ -4805,8 +4805,8 @@
   <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -6014,7 +6014,7 @@
       <c r="B34" t="s">
         <v>308</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="19" t="s">
         <v>160</v>
       </c>
       <c r="D34" s="2" t="s">

--- a/0-varios/Archivos-Office/Prods-Catálogo.xlsx
+++ b/0-varios/Archivos-Office/Prods-Catálogo.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Resumen" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BD!$A$1:$K$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BD!$A$1:$K$132</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">BD!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="564">
   <si>
     <t>Título</t>
   </si>
@@ -895,9 +895,6 @@
   </si>
   <si>
     <t>Isidro Labrador</t>
-  </si>
-  <si>
-    <t>José de Calasanz</t>
   </si>
   <si>
     <t>José de Cupertino</t>
@@ -2193,7 +2190,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Diego" refreshedDate="42516.582865277778" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="131">
   <cacheSource type="worksheet">
-    <worksheetSource ref="C1:K133" sheet="BD"/>
+    <worksheetSource ref="C1:K132" sheet="BD"/>
   </cacheSource>
   <cacheFields count="11">
     <cacheField name="Título" numFmtId="0">
@@ -4802,11 +4799,11 @@
   <sheetPr codeName="Hoja3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K133"/>
+  <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -4865,7 +4862,7 @@
         <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>68</v>
@@ -4903,7 +4900,7 @@
         <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>45</v>
@@ -4941,7 +4938,7 @@
         <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>100</v>
@@ -4979,7 +4976,7 @@
         <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>73</v>
@@ -5017,7 +5014,7 @@
         <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>69</v>
@@ -5055,7 +5052,7 @@
         <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>83</v>
@@ -5084,7 +5081,7 @@
         <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>84</v>
@@ -5113,7 +5110,7 @@
         <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>85</v>
@@ -5142,7 +5139,7 @@
         <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>87</v>
@@ -5171,7 +5168,7 @@
         <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>86</v>
@@ -5200,7 +5197,7 @@
         <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>88</v>
@@ -5229,7 +5226,7 @@
         <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>70</v>
@@ -5267,7 +5264,7 @@
         <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>71</v>
@@ -5305,10 +5302,10 @@
         <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>215</v>
@@ -5340,7 +5337,7 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>21</v>
@@ -5378,7 +5375,7 @@
         <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>89</v>
@@ -5416,7 +5413,7 @@
         <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>22</v>
@@ -5454,7 +5451,7 @@
         <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>63</v>
@@ -5492,7 +5489,7 @@
         <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>168</v>
@@ -5527,7 +5524,7 @@
         <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>53</v>
@@ -5565,7 +5562,7 @@
         <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>20</v>
@@ -5603,7 +5600,7 @@
         <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>90</v>
@@ -5618,7 +5615,7 @@
         <v>2012</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>91</v>
@@ -5641,7 +5638,7 @@
         <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>237</v>
@@ -5653,7 +5650,7 @@
         <v>1988</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H24" s="10">
         <v>1858</v>
@@ -5676,10 +5673,10 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>212</v>
@@ -5708,7 +5705,7 @@
         <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>55</v>
@@ -5746,7 +5743,7 @@
         <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>158</v>
@@ -5784,7 +5781,7 @@
         <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>161</v>
@@ -5822,7 +5819,7 @@
         <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>162</v>
@@ -5860,9 +5857,9 @@
         <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>308</v>
-      </c>
-      <c r="C30" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>157</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -5898,9 +5895,9 @@
         <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>308</v>
-      </c>
-      <c r="C31" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -5936,9 +5933,9 @@
         <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>308</v>
-      </c>
-      <c r="C32" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>156</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -5974,9 +5971,9 @@
         <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>308</v>
-      </c>
-      <c r="C33" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>72</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -5989,7 +5986,7 @@
         <v>2009</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H33" s="10">
         <v>1098</v>
@@ -6012,7 +6009,7 @@
         <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>160</v>
@@ -6033,15 +6030,15 @@
         <v>1491</v>
       </c>
       <c r="I34" s="1" t="str">
-        <f t="shared" ref="I34:I65" si="3">A34&amp;"  "&amp;B34&amp;G34&amp;C34</f>
+        <f t="shared" ref="I34:I64" si="3">A34&amp;"  "&amp;B34&amp;G34&amp;C34</f>
         <v>1. ELC  4. HagiografíasIgnacio de LoyolaSan Ignacio de Loyola</v>
       </c>
       <c r="J34" s="15">
-        <f t="shared" ref="J34:J65" si="4">INT(F34/10)*10+IF(F34-INT(F34/10)*10&gt;4,5,0)</f>
+        <f t="shared" ref="J34:J64" si="4">INT(F34/10)*10+IF(F34-INT(F34/10)*10&gt;4,5,0)</f>
         <v>1945</v>
       </c>
       <c r="K34" s="11">
-        <f t="shared" ref="K34:K65" si="5">COUNTIF(C34:H34,"&lt;&gt;")</f>
+        <f t="shared" ref="K34:K64" si="5">COUNTIF(C34:H34,"&lt;&gt;")</f>
         <v>6</v>
       </c>
     </row>
@@ -6050,9 +6047,9 @@
         <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>308</v>
-      </c>
-      <c r="C35" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -6088,28 +6085,37 @@
         <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>308</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>163</v>
+        <v>307</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1962</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>281</v>
       </c>
       <c r="H36" s="10">
-        <v>1557</v>
+        <v>1603</v>
       </c>
       <c r="I36" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1. ELC  4. HagiografíasJosé de CalasanzCalasanz</v>
+        <v>1. ELC  4. HagiografíasJosé de CupertinoEl santo renuente</v>
       </c>
       <c r="J36" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1960</v>
       </c>
       <c r="K36" s="11">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -6117,33 +6123,33 @@
         <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>308</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>165</v>
+        <v>307</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>218</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="F37" s="2">
-        <v>1962</v>
+        <v>2007</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>282</v>
       </c>
       <c r="H37" s="10">
-        <v>1603</v>
+        <v>1880</v>
       </c>
       <c r="I37" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1. ELC  4. HagiografíasJosé de CupertinoEl santo renuente</v>
+        <v>1. ELC  4. HagiografíasJosé MoscattiMoscati, el médico de los pobres</v>
       </c>
       <c r="J37" s="15">
         <f t="shared" si="4"/>
-        <v>1960</v>
+        <v>2005</v>
       </c>
       <c r="K37" s="11">
         <f t="shared" si="5"/>
@@ -6155,33 +6161,33 @@
         <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>308</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>218</v>
+        <v>307</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="F38" s="2">
-        <v>2007</v>
+        <v>1964</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>283</v>
       </c>
       <c r="H38" s="10">
-        <v>1880</v>
+        <v>1651</v>
       </c>
       <c r="I38" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1. ELC  4. HagiografíasJosé MoscattiMoscati, el médico de los pobres</v>
+        <v>1. ELC  4. HagiografíasJuan Bautista De La SalleEl Señor De La Salle</v>
       </c>
       <c r="J38" s="15">
         <f t="shared" si="4"/>
-        <v>2005</v>
+        <v>1960</v>
       </c>
       <c r="K38" s="11">
         <f t="shared" si="5"/>
@@ -6193,33 +6199,33 @@
         <v>64</v>
       </c>
       <c r="B39" t="s">
-        <v>308</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>19</v>
+        <v>307</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F39" s="2">
-        <v>1964</v>
+        <v>1988</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>284</v>
       </c>
       <c r="H39" s="10">
-        <v>1651</v>
+        <v>1815</v>
       </c>
       <c r="I39" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1. ELC  4. HagiografíasJuan Bautista De La SalleEl Señor De La Salle</v>
+        <v>1. ELC  4. HagiografíasJuan BoscoDon Bosco</v>
       </c>
       <c r="J39" s="15">
         <f t="shared" si="4"/>
-        <v>1960</v>
+        <v>1985</v>
       </c>
       <c r="K39" s="11">
         <f t="shared" si="5"/>
@@ -6231,33 +6237,33 @@
         <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>308</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>18</v>
+        <v>307</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>190</v>
+        <v>153</v>
+      </c>
+      <c r="E40" t="s">
+        <v>313</v>
       </c>
       <c r="F40" s="2">
-        <v>1988</v>
+        <v>2004</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H40" s="10">
         <v>1815</v>
       </c>
       <c r="I40" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1. ELC  4. HagiografíasJuan BoscoDon Bosco</v>
+        <v>1. ELC  4. HagiografíasJuan BoscoSan Juan Bosco</v>
       </c>
       <c r="J40" s="15">
         <f t="shared" si="4"/>
-        <v>1985</v>
+        <v>2000</v>
       </c>
       <c r="K40" s="11">
         <f t="shared" si="5"/>
@@ -6269,33 +6275,33 @@
         <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>308</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>41</v>
+        <v>307</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E41" t="s">
-        <v>314</v>
+        <v>230</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="F41" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>285</v>
       </c>
       <c r="H41" s="10">
-        <v>1815</v>
+        <v>1920</v>
       </c>
       <c r="I41" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1. ELC  4. HagiografíasJuan BoscoSan Juan Bosco</v>
+        <v>1. ELC  4. HagiografíasJuan Pablo IIKarol, el hombre que se convirtió en Papa</v>
       </c>
       <c r="J41" s="15">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="K41" s="11">
         <f t="shared" si="5"/>
@@ -6307,29 +6313,29 @@
         <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>308</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>31</v>
+        <v>307</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>169</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="F42" s="2">
-        <v>2005</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>286</v>
+        <v>2006</v>
+      </c>
+      <c r="G42" t="s">
+        <v>272</v>
       </c>
       <c r="H42" s="10">
-        <v>1920</v>
+        <v>1912</v>
       </c>
       <c r="I42" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1. ELC  4. HagiografíasJuan Pablo IIKarol, el hombre que se convirtió en Papa</v>
+        <v>1. ELC  4. HagiografíasJuan Pablo ILa sonrisa de Dios</v>
       </c>
       <c r="J42" s="15">
         <f t="shared" si="4"/>
@@ -6345,33 +6351,33 @@
         <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>308</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>169</v>
+        <v>307</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>172</v>
       </c>
       <c r="F43" s="2">
-        <v>2006</v>
-      </c>
-      <c r="G43" t="s">
-        <v>272</v>
+        <v>2002</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="H43" s="10">
-        <v>1912</v>
+        <v>1881</v>
       </c>
       <c r="I43" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1. ELC  4. HagiografíasJuan Pablo ILa sonrisa de Dios</v>
+        <v>1. ELC  4. HagiografíasJuan XXIIIEl papa de la paz</v>
       </c>
       <c r="J43" s="15">
         <f t="shared" si="4"/>
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="K43" s="11">
         <f t="shared" si="5"/>
@@ -6383,29 +6389,29 @@
         <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>308</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>32</v>
+        <v>307</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>153</v>
+        <v>222</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="F44" s="2">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H44" s="10">
         <v>1881</v>
       </c>
       <c r="I44" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1. ELC  4. HagiografíasJuan XXIIIEl papa de la paz</v>
+        <v>1. ELC  4. HagiografíasJuan XXIIIEl santo padre</v>
       </c>
       <c r="J44" s="15">
         <f t="shared" si="4"/>
@@ -6421,33 +6427,33 @@
         <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="F45" s="2">
-        <v>2003</v>
+        <v>1962</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>287</v>
+        <v>49</v>
       </c>
       <c r="H45" s="10">
-        <v>1881</v>
+        <v>1412</v>
       </c>
       <c r="I45" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1. ELC  4. HagiografíasJuan XXIIIEl santo padre</v>
+        <v>1. ELC  4. HagiografíasJuana de ArcoEl Proceso de Juana de Arco</v>
       </c>
       <c r="J45" s="15">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>1960</v>
       </c>
       <c r="K45" s="11">
         <f t="shared" si="5"/>
@@ -6459,19 +6465,19 @@
         <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="F46" s="2">
-        <v>1962</v>
+        <v>1999</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>49</v>
@@ -6481,11 +6487,11 @@
       </c>
       <c r="I46" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1. ELC  4. HagiografíasJuana de ArcoEl Proceso de Juana de Arco</v>
+        <v>1. ELC  4. HagiografíasJuana de ArcoJuana de Arco</v>
       </c>
       <c r="J46" s="15">
         <f t="shared" si="4"/>
-        <v>1960</v>
+        <v>1995</v>
       </c>
       <c r="K46" s="11">
         <f t="shared" si="5"/>
@@ -6497,33 +6503,33 @@
         <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="F47" s="2">
-        <v>1999</v>
+        <v>2012</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>49</v>
+        <v>293</v>
       </c>
       <c r="H47" s="10">
-        <v>1412</v>
+        <v>1837</v>
       </c>
       <c r="I47" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1. ELC  4. HagiografíasJuana de ArcoJuana de Arco</v>
+        <v>1. ELC  4. HagiografíasMaría Dominga MazzarelloMain, la casa de la felicidad</v>
       </c>
       <c r="J47" s="15">
         <f t="shared" si="4"/>
-        <v>1995</v>
+        <v>2010</v>
       </c>
       <c r="K47" s="11">
         <f t="shared" si="5"/>
@@ -6535,33 +6541,33 @@
         <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>166</v>
+        <v>56</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="F48" s="2">
-        <v>2012</v>
+        <v>2003</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>294</v>
+        <v>56</v>
       </c>
       <c r="H48" s="10">
-        <v>1837</v>
+        <v>1890</v>
       </c>
       <c r="I48" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1. ELC  4. HagiografíasMaría Dominga MazzarelloMain, la casa de la felicidad</v>
+        <v>1. ELC  4. HagiografíasMaría GorettiMaría Goretti</v>
       </c>
       <c r="J48" s="15">
         <f t="shared" si="4"/>
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="K48" s="11">
         <f t="shared" si="5"/>
@@ -6573,33 +6579,33 @@
         <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="F49" s="2">
-        <v>2003</v>
+        <v>1961</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>56</v>
+        <v>287</v>
       </c>
       <c r="H49" s="10">
-        <v>1890</v>
+        <v>1579</v>
       </c>
       <c r="I49" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1. ELC  4. HagiografíasMaría GorettiMaría Goretti</v>
+        <v>1. ELC  4. HagiografíasMartín de PorresFray Escoba</v>
       </c>
       <c r="J49" s="15">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>1960</v>
       </c>
       <c r="K49" s="11">
         <f t="shared" si="5"/>
@@ -6611,37 +6617,28 @@
         <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F50" s="2">
-        <v>1961</v>
+        <v>299</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H50" s="10">
         <v>1579</v>
       </c>
       <c r="I50" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1. ELC  4. HagiografíasMartín de PorresFray Escoba</v>
+        <v>1. ELC  4. HagiografíasMartín de PorresUn mulato llamado Martín</v>
       </c>
       <c r="J50" s="15">
         <f t="shared" si="4"/>
-        <v>1960</v>
+        <v>0</v>
       </c>
       <c r="K50" s="11">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -6649,28 +6646,34 @@
         <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>288</v>
+        <v>43</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1989</v>
+      </c>
+      <c r="G51" t="s">
+        <v>271</v>
       </c>
       <c r="H51" s="10">
-        <v>1579</v>
+        <v>1917</v>
       </c>
       <c r="I51" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1. ELC  4. HagiografíasMartín de PorresUn mulato llamado Martín</v>
+        <v>1. ELC  4. HagiografíasOscar RomeroRomero</v>
       </c>
       <c r="J51" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1985</v>
       </c>
       <c r="K51" s="11">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -6678,34 +6681,37 @@
         <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>43</v>
+        <v>167</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
       <c r="F52" s="2">
-        <v>1989</v>
+        <v>2008</v>
       </c>
       <c r="G52" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H52" s="10">
-        <v>1917</v>
+        <v>1897</v>
       </c>
       <c r="I52" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1. ELC  4. HagiografíasOscar RomeroRomero</v>
+        <v>1. ELC  4. HagiografíasPablo VIEl Papa en la tempestad</v>
       </c>
       <c r="J52" s="15">
         <f t="shared" si="4"/>
-        <v>1985</v>
+        <v>2005</v>
       </c>
       <c r="K52" s="11">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -6713,37 +6719,34 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>308</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>153</v>
+        <v>307</v>
+      </c>
+      <c r="C53" t="s">
+        <v>235</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="F53" s="2">
-        <v>2008</v>
-      </c>
-      <c r="G53" t="s">
-        <v>270</v>
+        <v>2000</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="H53" s="10">
-        <v>1897</v>
+        <v>1887</v>
       </c>
       <c r="I53" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1. ELC  4. HagiografíasPablo VIEl Papa en la tempestad</v>
+        <v>1. ELC  4. HagiografíasPío de PietrelcinaPadre Pío</v>
       </c>
       <c r="J53" s="15">
         <f t="shared" si="4"/>
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="K53" s="11">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -6751,26 +6754,29 @@
         <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>308</v>
-      </c>
-      <c r="C54" t="s">
-        <v>235</v>
+        <v>307</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="F54" s="2">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="H54" s="10">
-        <v>1887</v>
+        <v>1381</v>
       </c>
       <c r="I54" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1. ELC  4. HagiografíasPío de PietrelcinaPadre Pío</v>
+        <v>1. ELC  4. HagiografíasRita de CasciaRita da Cascia</v>
       </c>
       <c r="J54" s="15">
         <f t="shared" si="4"/>
@@ -6778,7 +6784,7 @@
       </c>
       <c r="K54" s="11">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -6786,37 +6792,34 @@
         <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="F55" s="2">
-        <v>2004</v>
+        <v>1961</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>295</v>
+        <v>44</v>
       </c>
       <c r="H55" s="10">
-        <v>1381</v>
+        <v>1586</v>
       </c>
       <c r="I55" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1. ELC  4. HagiografíasRita de CasciaRita da Cascia</v>
+        <v>1. ELC  4. HagiografíasRosa de LimaRosa de Lima</v>
       </c>
       <c r="J55" s="15">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>1960</v>
       </c>
       <c r="K55" s="11">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -6824,34 +6827,28 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>308</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F56" s="2">
-        <v>1961</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>44</v>
+        <v>307</v>
+      </c>
+      <c r="C56" t="s">
+        <v>316</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
       </c>
       <c r="H56" s="10">
-        <v>1586</v>
+        <v>1910</v>
       </c>
       <c r="I56" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1. ELC  4. HagiografíasRosa de LimaRosa de Lima</v>
+        <v>1. ELC  4. HagiografíasTeresa de CalcutaEn nombre de los pobres de Dios</v>
       </c>
       <c r="J56" s="15">
         <f t="shared" si="4"/>
-        <v>1960</v>
+        <v>0</v>
       </c>
       <c r="K56" s="11">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -6859,10 +6856,19 @@
         <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>308</v>
-      </c>
-      <c r="C57" t="s">
-        <v>317</v>
+        <v>307</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F57" s="2">
+        <v>2003</v>
       </c>
       <c r="G57" t="s">
         <v>17</v>
@@ -6872,15 +6878,15 @@
       </c>
       <c r="I57" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1. ELC  4. HagiografíasTeresa de CalcutaEn nombre de los pobres de Dios</v>
+        <v>1. ELC  4. HagiografíasTeresa de CalcutaTeresa de Calcuta</v>
       </c>
       <c r="J57" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="K57" s="11">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -6888,33 +6894,33 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="F58" s="2">
-        <v>2003</v>
-      </c>
-      <c r="G58" t="s">
-        <v>17</v>
+        <v>1984</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="H58" s="10">
-        <v>1910</v>
+        <v>1515</v>
       </c>
       <c r="I58" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1. ELC  4. HagiografíasTeresa de CalcutaTeresa de Calcuta</v>
+        <v>1. ELC  4. HagiografíasTeresa de JesúsTeresa de Jesús (Colección)</v>
       </c>
       <c r="J58" s="15">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>1980</v>
       </c>
       <c r="K58" s="11">
         <f t="shared" si="5"/>
@@ -6926,33 +6932,33 @@
         <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="F59" s="2">
-        <v>1984</v>
+        <v>2004</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>296</v>
       </c>
       <c r="H59" s="10">
-        <v>1515</v>
+        <v>1873</v>
       </c>
       <c r="I59" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1. ELC  4. HagiografíasTeresa de JesúsTeresa de Jesús (Colección)</v>
+        <v>1. ELC  4. HagiografíasTeresita de LisieuxTherese</v>
       </c>
       <c r="J59" s="15">
         <f t="shared" si="4"/>
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="K59" s="11">
         <f t="shared" si="5"/>
@@ -6964,33 +6970,33 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="F60" s="2">
-        <v>2004</v>
+        <v>1964</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>297</v>
       </c>
       <c r="H60" s="10">
-        <v>1873</v>
+        <v>1117</v>
       </c>
       <c r="I60" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1. ELC  4. HagiografíasTeresita de LisieuxTherese</v>
+        <v>1. ELC  4. HagiografíasTomás BecketBecket</v>
       </c>
       <c r="J60" s="15">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>1960</v>
       </c>
       <c r="K60" s="11">
         <f t="shared" si="5"/>
@@ -7002,33 +7008,33 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F61" s="2">
-        <v>1964</v>
+        <v>1966</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>298</v>
       </c>
       <c r="H61" s="10">
-        <v>1117</v>
+        <v>1478</v>
       </c>
       <c r="I61" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1. ELC  4. HagiografíasTomás BecketBecket</v>
+        <v>1. ELC  4. HagiografíasTomás MoroUn hombre para la eternidad</v>
       </c>
       <c r="J61" s="15">
         <f t="shared" si="4"/>
-        <v>1960</v>
+        <v>1965</v>
       </c>
       <c r="K61" s="11">
         <f t="shared" si="5"/>
@@ -7040,33 +7046,33 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F62" s="2">
-        <v>1966</v>
+        <v>1947</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="H62" s="10">
-        <v>1478</v>
+        <v>1576</v>
       </c>
       <c r="I62" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1. ELC  4. HagiografíasTomás MoroUn hombre para la eternidad</v>
+        <v>1. ELC  4. HagiografíasVicente de PaulMonsieur Vincent</v>
       </c>
       <c r="J62" s="15">
         <f t="shared" si="4"/>
-        <v>1965</v>
+        <v>1945</v>
       </c>
       <c r="K62" s="11">
         <f t="shared" si="5"/>
@@ -7081,34 +7087,31 @@
         <v>308</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>185</v>
+        <v>30</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="F63" s="2">
-        <v>1947</v>
+        <v>1983</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>290</v>
+        <v>111</v>
       </c>
       <c r="H63" s="10">
-        <v>1576</v>
+        <v>1945</v>
       </c>
       <c r="I63" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1. ELC  4. HagiografíasVicente de PaulMonsieur Vincent</v>
+        <v>1. ELC  5. Historias de la Iglesia2a Guerra MundialEscarlata y negro</v>
       </c>
       <c r="J63" s="15">
         <f t="shared" si="4"/>
-        <v>1945</v>
+        <v>1980</v>
       </c>
       <c r="K63" s="11">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -7116,30 +7119,30 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>113</v>
+        <v>116</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="F64" s="2">
-        <v>1983</v>
+        <v>1960</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H64" s="10">
-        <v>1945</v>
+        <v>52</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="I64" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1. ELC  5. Historias de la Iglesia2a Guerra MundialEscarlata y negro</v>
+        <v>1. ELC  5. Historias de la IglesiaAntiguo TestamentoLa historia de Ruth</v>
       </c>
       <c r="J64" s="15">
         <f t="shared" si="4"/>
-        <v>1980</v>
+        <v>1960</v>
       </c>
       <c r="K64" s="11">
         <f t="shared" si="5"/>
@@ -7151,16 +7154,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F65" s="2">
-        <v>1960</v>
+        <v>1956</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>52</v>
@@ -7169,15 +7172,15 @@
         <v>103</v>
       </c>
       <c r="I65" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>1. ELC  5. Historias de la IglesiaAntiguo TestamentoLa historia de Ruth</v>
+        <f t="shared" ref="I65:I96" si="6">A65&amp;"  "&amp;B65&amp;G65&amp;C65</f>
+        <v>1. ELC  5. Historias de la IglesiaAntiguo TestamentoLos diez mandamientos</v>
       </c>
       <c r="J65" s="15">
-        <f t="shared" si="4"/>
-        <v>1960</v>
+        <f t="shared" ref="J65:J96" si="7">INT(F65/10)*10+IF(F65-INT(F65/10)*10&gt;4,5,0)</f>
+        <v>1955</v>
       </c>
       <c r="K65" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="K65:K96" si="8">COUNTIF(C65:H65,"&lt;&gt;")</f>
         <v>5</v>
       </c>
     </row>
@@ -7186,16 +7189,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F66" s="2">
-        <v>1956</v>
+        <v>1959</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>52</v>
@@ -7204,15 +7207,15 @@
         <v>103</v>
       </c>
       <c r="I66" s="1" t="str">
-        <f t="shared" ref="I66:I97" si="6">A66&amp;"  "&amp;B66&amp;G66&amp;C66</f>
-        <v>1. ELC  5. Historias de la IglesiaAntiguo TestamentoLos diez mandamientos</v>
+        <f t="shared" si="6"/>
+        <v>1. ELC  5. Historias de la IglesiaAntiguo TestamentoSalomón y la Reina de Saba</v>
       </c>
       <c r="J66" s="15">
-        <f t="shared" ref="J66:J97" si="7">INT(F66/10)*10+IF(F66-INT(F66/10)*10&gt;4,5,0)</f>
+        <f t="shared" si="7"/>
         <v>1955</v>
       </c>
       <c r="K66" s="11">
-        <f t="shared" ref="K66:K97" si="8">COUNTIF(C66:H66,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
     </row>
@@ -7221,16 +7224,16 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F67" s="2">
-        <v>1959</v>
+        <v>1962</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>52</v>
@@ -7240,11 +7243,11 @@
       </c>
       <c r="I67" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1. ELC  5. Historias de la IglesiaAntiguo TestamentoSalomón y la Reina de Saba</v>
+        <v>1. ELC  5. Historias de la IglesiaAntiguo TestamentoSodoma y Gomorra</v>
       </c>
       <c r="J67" s="15">
         <f t="shared" si="7"/>
-        <v>1955</v>
+        <v>1960</v>
       </c>
       <c r="K67" s="11">
         <f t="shared" si="8"/>
@@ -7256,34 +7259,25 @@
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F68" s="2">
-        <v>1962</v>
+        <v>301</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>103</v>
+        <v>317</v>
       </c>
       <c r="I68" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1. ELC  5. Historias de la IglesiaAntiguo TestamentoSodoma y Gomorra</v>
+        <v>1. ELC  5. Historias de la IglesiaDictadura española (Franco)Un dios prohibido</v>
       </c>
       <c r="J68" s="15">
         <f t="shared" si="7"/>
-        <v>1960</v>
+        <v>0</v>
       </c>
       <c r="K68" s="11">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -7291,25 +7285,34 @@
         <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>302</v>
+        <v>50</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F69" s="2">
+        <v>1938</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>318</v>
+        <v>112</v>
+      </c>
+      <c r="H69" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="I69" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1. ELC  5. Historias de la IglesiaDictadura española (Franco)Un dios prohibido</v>
+        <v>1. ELC  5. Historias de la IglesiaEducación de jóvenesForja de hombres</v>
       </c>
       <c r="J69" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1935</v>
       </c>
       <c r="K69" s="11">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -7317,30 +7320,30 @@
         <v>64</v>
       </c>
       <c r="B70" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>114</v>
+        <v>51</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="F70" s="2">
-        <v>1938</v>
+        <v>1941</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H70" s="16" t="s">
+      <c r="H70" s="10" t="s">
         <v>103</v>
       </c>
       <c r="I70" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1. ELC  5. Historias de la IglesiaEducación de jóvenesForja de hombres</v>
+        <v>1. ELC  5. Historias de la IglesiaEducación de jóvenesLa ciudad de los muchachos</v>
       </c>
       <c r="J70" s="15">
         <f t="shared" si="7"/>
-        <v>1935</v>
+        <v>1940</v>
       </c>
       <c r="K70" s="11">
         <f t="shared" si="8"/>
@@ -7352,30 +7355,30 @@
         <v>64</v>
       </c>
       <c r="B71" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F71" s="2">
-        <v>1941</v>
+        <v>2003</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H71" s="10" t="s">
-        <v>103</v>
+        <v>14</v>
+      </c>
+      <c r="H71" s="10">
+        <v>1483</v>
       </c>
       <c r="I71" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1. ELC  5. Historias de la IglesiaEducación de jóvenesLa ciudad de los muchachos</v>
+        <v>1. ELC  5. Historias de la IglesiaMartín LuteroLutero</v>
       </c>
       <c r="J71" s="15">
         <f t="shared" si="7"/>
-        <v>1940</v>
+        <v>2000</v>
       </c>
       <c r="K71" s="11">
         <f t="shared" si="8"/>
@@ -7387,30 +7390,30 @@
         <v>64</v>
       </c>
       <c r="B72" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F72" s="2">
-        <v>2003</v>
+        <v>1965</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H72" s="10">
-        <v>1483</v>
+        <v>1475</v>
       </c>
       <c r="I72" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1. ELC  5. Historias de la IglesiaMartín LuteroLutero</v>
+        <v>1. ELC  5. Historias de la IglesiaMiguel ÁngelLa agonía y el éxtasis</v>
       </c>
       <c r="J72" s="15">
         <f t="shared" si="7"/>
-        <v>2000</v>
+        <v>1965</v>
       </c>
       <c r="K72" s="11">
         <f t="shared" si="8"/>
@@ -7422,30 +7425,30 @@
         <v>64</v>
       </c>
       <c r="B73" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>115</v>
+        <v>24</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="F73" s="2">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="H73" s="10">
-        <v>1475</v>
+        <v>1879</v>
       </c>
       <c r="I73" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1. ELC  5. Historias de la IglesiaMiguel ÁngelLa agonía y el éxtasis</v>
+        <v>1. ELC  5. Historias de la IglesiaRevolución FrancesaDiálogo de Carmelitas</v>
       </c>
       <c r="J73" s="15">
         <f t="shared" si="7"/>
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="K73" s="11">
         <f t="shared" si="8"/>
@@ -7460,23 +7463,23 @@
         <v>309</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>109</v>
+        <v>125</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="F74" s="2">
-        <v>1960</v>
+        <v>1963</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H74" s="10">
-        <v>1879</v>
+        <v>103</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="I74" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1. ELC  5. Historias de la IglesiaRevolución FrancesaDiálogo de Carmelitas</v>
+        <v>1. ELC  6. Novelas centradas en la fe-Alegre juventud</v>
       </c>
       <c r="J74" s="15">
         <f t="shared" si="7"/>
@@ -7492,16 +7495,16 @@
         <v>64</v>
       </c>
       <c r="B75" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F75" s="2">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>103</v>
@@ -7511,7 +7514,7 @@
       </c>
       <c r="I75" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1. ELC  6. Novelas centradas en la fe-Alegre juventud</v>
+        <v>1. ELC  6. Novelas centradas en la fe-Barrabás</v>
       </c>
       <c r="J75" s="15">
         <f t="shared" si="7"/>
@@ -7527,16 +7530,16 @@
         <v>64</v>
       </c>
       <c r="B76" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F76" s="2">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>103</v>
@@ -7546,11 +7549,11 @@
       </c>
       <c r="I76" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1. ELC  6. Novelas centradas en la fe-Barrabás</v>
+        <v>1. ELC  6. Novelas centradas en la fe-Ben-Hur</v>
       </c>
       <c r="J76" s="15">
         <f t="shared" si="7"/>
-        <v>1960</v>
+        <v>1955</v>
       </c>
       <c r="K76" s="11">
         <f t="shared" si="8"/>
@@ -7562,16 +7565,16 @@
         <v>64</v>
       </c>
       <c r="B77" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F77" s="2">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>103</v>
@@ -7581,11 +7584,11 @@
       </c>
       <c r="I77" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1. ELC  6. Novelas centradas en la fe-Ben-Hur</v>
+        <v>1. ELC  6. Novelas centradas en la fe-Demetrius y los gladiadores</v>
       </c>
       <c r="J77" s="15">
         <f t="shared" si="7"/>
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="K77" s="11">
         <f t="shared" si="8"/>
@@ -7597,34 +7600,22 @@
         <v>64</v>
       </c>
       <c r="B78" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F78" s="2">
-        <v>1954</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H78" s="10" t="s">
-        <v>103</v>
+        <v>300</v>
       </c>
       <c r="I78" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1. ELC  6. Novelas centradas en la fe-Demetrius y los gladiadores</v>
+        <v>1. ELC  6. Novelas centradas en la feDomingo</v>
       </c>
       <c r="J78" s="15">
         <f t="shared" si="7"/>
-        <v>1950</v>
+        <v>0</v>
       </c>
       <c r="K78" s="11">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
@@ -7632,22 +7623,34 @@
         <v>64</v>
       </c>
       <c r="B79" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>301</v>
+        <v>128</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F79" s="2">
+        <v>1966</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="I79" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1. ELC  6. Novelas centradas en la feDomingo</v>
+        <v>1. ELC  6. Novelas centradas en la fe-Dominique</v>
       </c>
       <c r="J79" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1965</v>
       </c>
       <c r="K79" s="11">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
@@ -7655,16 +7658,19 @@
         <v>64</v>
       </c>
       <c r="B80" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>128</v>
+        <v>29</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="F80" s="2">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>103</v>
@@ -7674,15 +7680,15 @@
       </c>
       <c r="I80" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1. ELC  6. Novelas centradas en la fe-Dominique</v>
+        <v>1. ELC  6. Novelas centradas en la fe-El cardenal</v>
       </c>
       <c r="J80" s="15">
         <f t="shared" si="7"/>
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="K80" s="11">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
@@ -7690,19 +7696,16 @@
         <v>64</v>
       </c>
       <c r="B81" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="F81" s="2">
-        <v>1963</v>
+        <v>1953</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>103</v>
@@ -7712,15 +7715,15 @@
       </c>
       <c r="I81" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1. ELC  6. Novelas centradas en la fe-El cardenal</v>
+        <v>1. ELC  6. Novelas centradas en la fe-El manto sagrado</v>
       </c>
       <c r="J81" s="15">
         <f t="shared" si="7"/>
-        <v>1960</v>
+        <v>1950</v>
       </c>
       <c r="K81" s="11">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -7728,16 +7731,16 @@
         <v>64</v>
       </c>
       <c r="B82" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="F82" s="2">
-        <v>1953</v>
+        <v>2010</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>103</v>
@@ -7747,11 +7750,11 @@
       </c>
       <c r="I82" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1. ELC  6. Novelas centradas en la fe-El manto sagrado</v>
+        <v>1. ELC  6. Novelas centradas en la fe-El milagro de Aparecida</v>
       </c>
       <c r="J82" s="15">
         <f t="shared" si="7"/>
-        <v>1950</v>
+        <v>2010</v>
       </c>
       <c r="K82" s="11">
         <f t="shared" si="8"/>
@@ -7763,16 +7766,16 @@
         <v>64</v>
       </c>
       <c r="B83" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F83" s="2">
-        <v>2010</v>
+        <v>1968</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>103</v>
@@ -7782,11 +7785,11 @@
       </c>
       <c r="I83" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1. ELC  6. Novelas centradas en la fe-El milagro de Aparecida</v>
+        <v>1. ELC  6. Novelas centradas en la fe-Las sandalias del pescador</v>
       </c>
       <c r="J83" s="15">
         <f t="shared" si="7"/>
-        <v>2010</v>
+        <v>1965</v>
       </c>
       <c r="K83" s="11">
         <f t="shared" si="8"/>
@@ -7798,16 +7801,16 @@
         <v>64</v>
       </c>
       <c r="B84" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>139</v>
+        <v>28</v>
+      </c>
+      <c r="E84" t="s">
+        <v>315</v>
       </c>
       <c r="F84" s="2">
-        <v>1968</v>
+        <v>2000</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>103</v>
@@ -7817,11 +7820,11 @@
       </c>
       <c r="I84" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1. ELC  6. Novelas centradas en la fe-Las sandalias del pescador</v>
+        <v>1. ELC  6. Novelas centradas en la fe-Lourdes</v>
       </c>
       <c r="J84" s="15">
         <f t="shared" si="7"/>
-        <v>1965</v>
+        <v>2000</v>
       </c>
       <c r="K84" s="11">
         <f t="shared" si="8"/>
@@ -7833,16 +7836,16 @@
         <v>64</v>
       </c>
       <c r="B85" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E85" t="s">
-        <v>316</v>
+        <v>27</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="F85" s="2">
-        <v>2000</v>
+        <v>1955</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>103</v>
@@ -7852,11 +7855,11 @@
       </c>
       <c r="I85" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1. ELC  6. Novelas centradas en la fe-Lourdes</v>
+        <v>1. ELC  6. Novelas centradas en la fe-Marcelino pan y vino</v>
       </c>
       <c r="J85" s="15">
         <f t="shared" si="7"/>
-        <v>2000</v>
+        <v>1955</v>
       </c>
       <c r="K85" s="11">
         <f t="shared" si="8"/>
@@ -7868,16 +7871,16 @@
         <v>64</v>
       </c>
       <c r="B86" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F86" s="2">
-        <v>1955</v>
+        <v>1951</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>103</v>
@@ -7887,11 +7890,11 @@
       </c>
       <c r="I86" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1. ELC  6. Novelas centradas en la fe-Marcelino pan y vino</v>
+        <v>1. ELC  6. Novelas centradas en la fe-Quo Vadis</v>
       </c>
       <c r="J86" s="15">
         <f t="shared" si="7"/>
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="K86" s="11">
         <f t="shared" si="8"/>
@@ -7903,16 +7906,16 @@
         <v>64</v>
       </c>
       <c r="B87" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F87" s="2">
-        <v>1951</v>
+        <v>2001</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>103</v>
@@ -7926,7 +7929,7 @@
       </c>
       <c r="J87" s="15">
         <f t="shared" si="7"/>
-        <v>1950</v>
+        <v>2000</v>
       </c>
       <c r="K87" s="11">
         <f t="shared" si="8"/>
@@ -7941,27 +7944,27 @@
         <v>310</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F88" s="2">
-        <v>2001</v>
+        <v>1952</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="H88" s="10" t="s">
         <v>103</v>
       </c>
       <c r="I88" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1. ELC  6. Novelas centradas en la fe-Quo Vadis</v>
+        <v>1. ELC  7. ColeccionesDon CamiloDon Camilo</v>
       </c>
       <c r="J88" s="15">
         <f t="shared" si="7"/>
-        <v>2000</v>
+        <v>1950</v>
       </c>
       <c r="K88" s="11">
         <f t="shared" si="8"/>
@@ -7973,30 +7976,30 @@
         <v>64</v>
       </c>
       <c r="B89" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>46</v>
+        <v>25</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F89" s="2">
-        <v>1952</v>
+        <v>150</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H89" s="10" t="s">
         <v>103</v>
       </c>
       <c r="I89" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1. ELC  7. ColeccionesDon CamiloDon Camilo</v>
+        <v>1. ELC  7. ColeccionesLa BibliaLa Biblia</v>
       </c>
       <c r="J89" s="15">
         <f t="shared" si="7"/>
-        <v>1950</v>
+        <v>0</v>
       </c>
       <c r="K89" s="11">
         <f t="shared" si="8"/>
@@ -8008,30 +8011,30 @@
         <v>64</v>
       </c>
       <c r="B90" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>150</v>
+        <v>97</v>
+      </c>
+      <c r="F90" s="2">
+        <v>1985</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="H90" s="10" t="s">
         <v>103</v>
       </c>
       <c r="I90" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1. ELC  7. ColeccionesLa BibliaLa Biblia</v>
+        <v xml:space="preserve">1. ELC  7. ColeccionesPrimeros cristianosAnno Domini </v>
       </c>
       <c r="J90" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1985</v>
       </c>
       <c r="K90" s="11">
         <f t="shared" si="8"/>
@@ -8040,37 +8043,25 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B91" t="s">
-        <v>311</v>
+        <v>82</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F91" s="2">
-        <v>1985</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H91" s="10" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="I91" s="1" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">1. ELC  7. ColeccionesPrimeros cristianosAnno Domini </v>
+        <v>1. ELC Niños  A. JesúsUn reino sin fronteras</v>
       </c>
       <c r="J91" s="15">
         <f t="shared" si="7"/>
-        <v>1985</v>
+        <v>0</v>
       </c>
       <c r="K91" s="11">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
@@ -8078,14 +8069,20 @@
         <v>82</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>81</v>
+        <v>144</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="I92" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1. ELC Niños  A. JesúsUn reino sin fronteras</v>
+        <v>1. ELC Niños  G. ColeccionesHagiografíasUn nombre. Un santo</v>
       </c>
       <c r="J92" s="15">
         <f t="shared" si="7"/>
@@ -8093,7 +8090,7 @@
       </c>
       <c r="K92" s="11">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -8104,7 +8101,7 @@
         <v>66</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>146</v>
@@ -8114,7 +8111,7 @@
       </c>
       <c r="I93" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1. ELC Niños  G. ColeccionesHagiografíasUn nombre. Un santo</v>
+        <v>1. ELC Niños  G. ColeccionesHagiografíasVidas ejemplares</v>
       </c>
       <c r="J93" s="15">
         <f t="shared" si="7"/>
@@ -8133,17 +8130,17 @@
         <v>66</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="H94" s="10" t="s">
         <v>103</v>
       </c>
       <c r="I94" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1. ELC Niños  G. ColeccionesHagiografíasVidas ejemplares</v>
+        <v>1. ELC Niños  G. ColeccionesLa BibliaGrandes historias de la Biblia</v>
       </c>
       <c r="J94" s="15">
         <f t="shared" si="7"/>
@@ -8155,24 +8152,24 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>66</v>
+      <c r="A95" t="s">
+        <v>266</v>
+      </c>
+      <c r="B95" t="s">
+        <v>260</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H95" s="10" t="s">
-        <v>103</v>
+        <v>40</v>
+      </c>
+      <c r="G95" t="s">
+        <v>240</v>
+      </c>
+      <c r="H95" s="10">
+        <v>1902</v>
       </c>
       <c r="I95" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1. ELC Niños  G. ColeccionesLa BibliaGrandes historias de la Biblia</v>
+        <v>2. VPC  1. Biografías e HistoriasOrden en los valoresBobby Jones, genio del golf</v>
       </c>
       <c r="J95" s="15">
         <f t="shared" si="7"/>
@@ -8191,25 +8188,28 @@
         <v>260</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="F96" s="2">
+        <v>1981</v>
       </c>
       <c r="G96" t="s">
         <v>240</v>
       </c>
       <c r="H96" s="10">
-        <v>1902</v>
+        <v>1924</v>
       </c>
       <c r="I96" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>2. VPC  1. Biografías e HistoriasOrden en los valoresBobby Jones, genio del golf</v>
+        <v>2. VPC  1. Biografías e HistoriasOrden en los valoresCarrozas de fuego</v>
       </c>
       <c r="J96" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1980</v>
       </c>
       <c r="K96" s="11">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
@@ -8220,28 +8220,22 @@
         <v>260</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F97" s="2">
-        <v>1981</v>
+        <v>238</v>
       </c>
       <c r="G97" t="s">
-        <v>240</v>
-      </c>
-      <c r="H97" s="10">
-        <v>1924</v>
+        <v>242</v>
       </c>
       <c r="I97" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>2. VPC  1. Biografías e HistoriasOrden en los valoresCarrozas de fuego</v>
+        <f t="shared" ref="I97:I132" si="9">A97&amp;"  "&amp;B97&amp;G97&amp;C97</f>
+        <v>2. VPC  1. Biografías e HistoriasPaz social sin violenciaGandhi</v>
       </c>
       <c r="J97" s="15">
-        <f t="shared" si="7"/>
-        <v>1980</v>
+        <f t="shared" ref="J97:J132" si="10">INT(F97/10)*10+IF(F97-INT(F97/10)*10&gt;4,5,0)</f>
+        <v>0</v>
       </c>
       <c r="K97" s="11">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f t="shared" ref="K97:K132" si="11">COUNTIF(C97:H97,"&lt;&gt;")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
@@ -8252,22 +8246,28 @@
         <v>260</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>238</v>
+        <v>62</v>
+      </c>
+      <c r="F98" s="2">
+        <v>2009</v>
       </c>
       <c r="G98" t="s">
         <v>242</v>
       </c>
+      <c r="H98" s="10">
+        <v>1995</v>
+      </c>
       <c r="I98" s="1" t="str">
-        <f t="shared" ref="I98:I133" si="9">A98&amp;"  "&amp;B98&amp;G98&amp;C98</f>
-        <v>2. VPC  1. Biografías e HistoriasPaz social sin violenciaGandhi</v>
+        <f t="shared" si="9"/>
+        <v>2. VPC  1. Biografías e HistoriasPaz social sin violenciaInvictus</v>
       </c>
       <c r="J98" s="15">
-        <f t="shared" ref="J98:J133" si="10">INT(F98/10)*10+IF(F98-INT(F98/10)*10&gt;4,5,0)</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>2005</v>
       </c>
       <c r="K98" s="11">
-        <f t="shared" ref="K98:K133" si="11">COUNTIF(C98:H98,"&lt;&gt;")</f>
-        <v>2</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
@@ -8278,24 +8278,24 @@
         <v>260</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="F99" s="2">
-        <v>2009</v>
+        <v>1999</v>
       </c>
       <c r="G99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H99" s="10">
-        <v>1995</v>
+        <v>1950</v>
       </c>
       <c r="I99" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  1. Biografías e HistoriasPaz social sin violenciaInvictus</v>
+        <v>2. VPC  1. Biografías e HistoriasPerseveranciaCielo de octubre</v>
       </c>
       <c r="J99" s="15">
         <f t="shared" si="10"/>
-        <v>2005</v>
+        <v>1995</v>
       </c>
       <c r="K99" s="11">
         <f t="shared" si="11"/>
@@ -8310,28 +8310,25 @@
         <v>260</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F100" s="2">
-        <v>1999</v>
+        <v>57</v>
       </c>
       <c r="G100" t="s">
         <v>241</v>
       </c>
       <c r="H100" s="10">
-        <v>1950</v>
+        <v>1847</v>
       </c>
       <c r="I100" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  1. Biografías e HistoriasPerseveranciaCielo de octubre</v>
+        <v>2. VPC  1. Biografías e HistoriasPerseveranciaEdison, el hombre</v>
       </c>
       <c r="J100" s="15">
         <f t="shared" si="10"/>
-        <v>1995</v>
+        <v>0</v>
       </c>
       <c r="K100" s="11">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
@@ -8342,17 +8339,14 @@
         <v>260</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>57</v>
+        <v>239</v>
       </c>
       <c r="G101" t="s">
         <v>241</v>
       </c>
-      <c r="H101" s="10">
-        <v>1847</v>
-      </c>
       <c r="I101" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  1. Biografías e HistoriasPerseveranciaEdison, el hombre</v>
+        <v>2. VPC  1. Biografías e HistoriasPerseveranciaManos milagrosas</v>
       </c>
       <c r="J101" s="15">
         <f t="shared" si="10"/>
@@ -8360,7 +8354,7 @@
       </c>
       <c r="K101" s="11">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
@@ -8371,22 +8365,28 @@
         <v>260</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>239</v>
+        <v>13</v>
+      </c>
+      <c r="F102" s="2">
+        <v>1998</v>
       </c>
       <c r="G102" t="s">
-        <v>241</v>
+        <v>245</v>
+      </c>
+      <c r="H102" s="10">
+        <v>1943</v>
       </c>
       <c r="I102" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  1. Biografías e HistoriasPerseveranciaManos milagrosas</v>
+        <v>2. VPC  1. Biografías e HistoriasSolidaridad con el heridoPatch Adams</v>
       </c>
       <c r="J102" s="15">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1995</v>
       </c>
       <c r="K102" s="11">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
@@ -8397,28 +8397,22 @@
         <v>260</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" s="2">
-        <v>1998</v>
+        <v>243</v>
       </c>
       <c r="G103" t="s">
         <v>245</v>
       </c>
-      <c r="H103" s="10">
-        <v>1943</v>
-      </c>
       <c r="I103" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  1. Biografías e HistoriasSolidaridad con el heridoPatch Adams</v>
+        <v>2. VPC  1. Biografías e HistoriasSolidaridad con el heridoWinter el delfín</v>
       </c>
       <c r="J103" s="15">
         <f t="shared" si="10"/>
-        <v>1995</v>
+        <v>0</v>
       </c>
       <c r="K103" s="11">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
@@ -8429,22 +8423,28 @@
         <v>260</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>243</v>
+        <v>16</v>
+      </c>
+      <c r="F104" s="2">
+        <v>2003</v>
       </c>
       <c r="G104" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H104" s="10">
+        <v>1933</v>
       </c>
       <c r="I104" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  1. Biografías e HistoriasSolidaridad con el heridoWinter el delfín</v>
+        <v>2. VPC  1. Biografías e HistoriasTriunfar desde la debilidadSeabiscuit</v>
       </c>
       <c r="J104" s="15">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="K104" s="11">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
@@ -8452,31 +8452,23 @@
         <v>266</v>
       </c>
       <c r="B105" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F105" s="2">
-        <v>2003</v>
-      </c>
-      <c r="G105" t="s">
-        <v>244</v>
-      </c>
-      <c r="H105" s="10">
-        <v>1933</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G105"/>
       <c r="I105" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  1. Biografías e HistoriasTriunfar desde la debilidadSeabiscuit</v>
+        <v>2. VPC  2. Matrimonio y FamiliaAdivina quién viene a cenar esta noche</v>
       </c>
       <c r="J105" s="15">
         <f t="shared" si="10"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="K105" s="11">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
@@ -8487,12 +8479,11 @@
         <v>261</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G106"/>
+        <v>251</v>
+      </c>
       <c r="I106" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  2. Matrimonio y FamiliaAdivina quién viene a cenar esta noche</v>
+        <v>2. VPC  2. Matrimonio y FamiliaBebé de octubre</v>
       </c>
       <c r="J106" s="15">
         <f t="shared" si="10"/>
@@ -8511,11 +8502,11 @@
         <v>261</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="I107" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  2. Matrimonio y FamiliaBebé de octubre</v>
+        <v>2. VPC  2. Matrimonio y FamiliaBella</v>
       </c>
       <c r="J107" s="15">
         <f t="shared" si="10"/>
@@ -8534,11 +8525,11 @@
         <v>261</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I108" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  2. Matrimonio y FamiliaBella</v>
+        <v>2. VPC  2. Matrimonio y FamiliaCapitanes intrépidos</v>
       </c>
       <c r="J108" s="15">
         <f t="shared" si="10"/>
@@ -8557,11 +8548,11 @@
         <v>261</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I109" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  2. Matrimonio y FamiliaCapitanes intrépidos</v>
+        <v>2. VPC  2. Matrimonio y FamiliaEl derecho de nacer</v>
       </c>
       <c r="J109" s="15">
         <f t="shared" si="10"/>
@@ -8580,11 +8571,11 @@
         <v>261</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I110" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  2. Matrimonio y FamiliaEl derecho de nacer</v>
+        <v>2. VPC  2. Matrimonio y FamiliaEl río de la vida</v>
       </c>
       <c r="J110" s="15">
         <f t="shared" si="10"/>
@@ -8603,11 +8594,11 @@
         <v>261</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I111" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  2. Matrimonio y FamiliaEl río de la vida</v>
+        <v>2. VPC  2. Matrimonio y FamiliaEl velo pintado</v>
       </c>
       <c r="J111" s="15">
         <f t="shared" si="10"/>
@@ -8626,11 +8617,11 @@
         <v>261</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I112" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  2. Matrimonio y FamiliaEl velo pintado</v>
+        <v>2. VPC  2. Matrimonio y FamiliaProfesor Holland</v>
       </c>
       <c r="J112" s="15">
         <f t="shared" si="10"/>
@@ -8649,11 +8640,11 @@
         <v>261</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I113" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  2. Matrimonio y FamiliaProfesor Holland</v>
+        <v>2. VPC  2. Matrimonio y FamiliaPrueba de fuego</v>
       </c>
       <c r="J113" s="15">
         <f t="shared" si="10"/>
@@ -8671,12 +8662,12 @@
       <c r="B114" t="s">
         <v>261</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>253</v>
+      <c r="C114" t="s">
+        <v>303</v>
       </c>
       <c r="I114" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  2. Matrimonio y FamiliaPrueba de fuego</v>
+        <v>2. VPC  2. Matrimonio y FamiliaUna promesa para cumplir</v>
       </c>
       <c r="J114" s="15">
         <f t="shared" si="10"/>
@@ -8694,12 +8685,12 @@
       <c r="B115" t="s">
         <v>261</v>
       </c>
-      <c r="C115" t="s">
-        <v>304</v>
+      <c r="C115" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="I115" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  2. Matrimonio y FamiliaUna promesa para cumplir</v>
+        <v>2. VPC  2. Matrimonio y FamiliaVive como quieras</v>
       </c>
       <c r="J115" s="15">
         <f t="shared" si="10"/>
@@ -8715,22 +8706,25 @@
         <v>266</v>
       </c>
       <c r="B116" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>254</v>
+        <v>10</v>
+      </c>
+      <c r="F116" s="2">
+        <v>1939</v>
       </c>
       <c r="I116" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  2. Matrimonio y FamiliaVive como quieras</v>
+        <v>2. VPC  3. NovelasAdiós Mr. Chips</v>
       </c>
       <c r="J116" s="15">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1935</v>
       </c>
       <c r="K116" s="11">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
@@ -8741,18 +8735,18 @@
         <v>262</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F117" s="2">
-        <v>1939</v>
+        <v>1967</v>
       </c>
       <c r="I117" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  3. NovelasAdiós Mr. Chips</v>
+        <v>2. VPC  3. NovelasAl maestro con cariño</v>
       </c>
       <c r="J117" s="15">
         <f t="shared" si="10"/>
-        <v>1935</v>
+        <v>1965</v>
       </c>
       <c r="K117" s="11">
         <f t="shared" si="11"/>
@@ -8767,22 +8761,19 @@
         <v>262</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F118" s="2">
-        <v>1967</v>
+        <v>265</v>
       </c>
       <c r="I118" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  3. NovelasAl maestro con cariño</v>
+        <v>2. VPC  3. NovelasAna de Tejas Verdes</v>
       </c>
       <c r="J118" s="15">
         <f t="shared" si="10"/>
-        <v>1965</v>
+        <v>0</v>
       </c>
       <c r="K118" s="11">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
@@ -8793,11 +8784,11 @@
         <v>262</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>265</v>
+        <v>6</v>
       </c>
       <c r="I119" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  3. NovelasAna de Tejas Verdes</v>
+        <v>2. VPC  3. NovelasAtrapado en el tiempo</v>
       </c>
       <c r="J119" s="15">
         <f t="shared" si="10"/>
@@ -8816,11 +8807,11 @@
         <v>262</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>6</v>
+        <v>255</v>
       </c>
       <c r="I120" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  3. NovelasAtrapado en el tiempo</v>
+        <v>2. VPC  3. NovelasCarlitos</v>
       </c>
       <c r="J120" s="15">
         <f t="shared" si="10"/>
@@ -8839,11 +8830,11 @@
         <v>262</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I121" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  3. NovelasCarlitos</v>
+        <v>2. VPC  3. NovelasEl circo de la mariposa</v>
       </c>
       <c r="J121" s="15">
         <f t="shared" si="10"/>
@@ -8862,11 +8853,11 @@
         <v>262</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I122" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  3. NovelasEl circo de la mariposa</v>
+        <v>2. VPC  3. NovelasEl doctor</v>
       </c>
       <c r="J122" s="15">
         <f t="shared" si="10"/>
@@ -8885,11 +8876,11 @@
         <v>262</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="I123" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  3. NovelasEl doctor</v>
+        <v>2. VPC  3. NovelasLa sociedad de los poetas muertos</v>
       </c>
       <c r="J123" s="15">
         <f t="shared" si="10"/>
@@ -8908,19 +8899,22 @@
         <v>262</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="F124" s="2">
+        <v>2004</v>
       </c>
       <c r="I124" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  3. NovelasLa sociedad de los poetas muertos</v>
+        <v>2. VPC  3. NovelasLos coristas</v>
       </c>
       <c r="J124" s="15">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="K124" s="11">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
@@ -8931,22 +8925,19 @@
         <v>262</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F125" s="2">
-        <v>2004</v>
+        <v>258</v>
       </c>
       <c r="I125" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  3. NovelasLos coristas</v>
+        <v>2. VPC  3. NovelasLos miserables</v>
       </c>
       <c r="J125" s="15">
         <f t="shared" si="10"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="K125" s="11">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
@@ -8957,11 +8948,11 @@
         <v>262</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="I126" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  3. NovelasLos miserables</v>
+        <v>2. VPC  3. NovelasMi nombre es Khan</v>
       </c>
       <c r="J126" s="15">
         <f t="shared" si="10"/>
@@ -8979,12 +8970,12 @@
       <c r="B127" t="s">
         <v>262</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>303</v>
+      <c r="C127" t="s">
+        <v>311</v>
       </c>
       <c r="I127" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  3. NovelasMi nombre es Khan</v>
+        <v>2. VPC  3. NovelasPríncipe y mendigo</v>
       </c>
       <c r="J127" s="15">
         <f t="shared" si="10"/>
@@ -9002,20 +8993,23 @@
       <c r="B128" t="s">
         <v>262</v>
       </c>
-      <c r="C128" t="s">
-        <v>312</v>
+      <c r="C128" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F128" s="2">
+        <v>1946</v>
       </c>
       <c r="I128" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  3. NovelasPríncipe y mendigo</v>
+        <v>2. VPC  3. NovelasQué bello es vivir</v>
       </c>
       <c r="J128" s="15">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1945</v>
       </c>
       <c r="K128" s="11">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
@@ -9023,25 +9017,22 @@
         <v>266</v>
       </c>
       <c r="B129" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F129" s="2">
-        <v>1946</v>
+        <v>259</v>
       </c>
       <c r="I129" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  3. NovelasQué bello es vivir</v>
+        <v>2. VPC  4. MusicalesEl fabuloso Andersen</v>
       </c>
       <c r="J129" s="15">
         <f t="shared" si="10"/>
-        <v>1945</v>
+        <v>0</v>
       </c>
       <c r="K129" s="11">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
@@ -9052,11 +9043,11 @@
         <v>263</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>259</v>
+        <v>39</v>
       </c>
       <c r="I130" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  4. MusicalesEl fabuloso Andersen</v>
+        <v>2. VPC  4. MusicalesLa novicia rebelde</v>
       </c>
       <c r="J130" s="15">
         <f t="shared" si="10"/>
@@ -9075,11 +9066,11 @@
         <v>263</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I131" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  4. MusicalesLa novicia rebelde</v>
+        <v>2. VPC  4. MusicalesSiete novias para siete hermanos</v>
       </c>
       <c r="J131" s="15">
         <f t="shared" si="10"/>
@@ -9098,11 +9089,11 @@
         <v>263</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>47</v>
+        <v>264</v>
       </c>
       <c r="I132" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>2. VPC  4. MusicalesSiete novias para siete hermanos</v>
+        <v>2. VPC  4. MusicalesSor Ye-ye</v>
       </c>
       <c r="J132" s="15">
         <f t="shared" si="10"/>
@@ -9113,39 +9104,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>266</v>
-      </c>
-      <c r="B133" t="s">
-        <v>263</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="I133" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>2. VPC  4. MusicalesSor Ye-ye</v>
-      </c>
-      <c r="J133" s="15">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K133" s="11">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K133"/>
+  <autoFilter ref="A1:K132"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E72" r:id="rId1" display="http://www.imdb.com/name/nm0863254/?ref_=tt_ov_dr"/>
-    <hyperlink ref="E71" r:id="rId2" display="http://www.imdb.com/name/nm0851537/?ref_=tt_ov_dr"/>
-    <hyperlink ref="E66" r:id="rId3" display="http://www.imdb.com/name/nm0001124/?ref_=tt_ov_dr"/>
-    <hyperlink ref="E77" r:id="rId4" display="http://www.imdb.com/name/nm0943758/?ref_=tt_ov_dr"/>
-    <hyperlink ref="E81" r:id="rId5" tooltip="Otto Preminger" display="http://es.wikipedia.org/wiki/Otto_Preminger"/>
-    <hyperlink ref="D81" r:id="rId6" tooltip="Martin C. Schute (aún no redactado)" display="http://es.wikipedia.org/w/index.php?title=Martin_C._Schute&amp;action=edit&amp;redlink=1"/>
+    <hyperlink ref="E71" r:id="rId1" display="http://www.imdb.com/name/nm0863254/?ref_=tt_ov_dr"/>
+    <hyperlink ref="E70" r:id="rId2" display="http://www.imdb.com/name/nm0851537/?ref_=tt_ov_dr"/>
+    <hyperlink ref="E65" r:id="rId3" display="http://www.imdb.com/name/nm0001124/?ref_=tt_ov_dr"/>
+    <hyperlink ref="E76" r:id="rId4" display="http://www.imdb.com/name/nm0943758/?ref_=tt_ov_dr"/>
+    <hyperlink ref="E80" r:id="rId5" tooltip="Otto Preminger" display="http://es.wikipedia.org/wiki/Otto_Preminger"/>
+    <hyperlink ref="D80" r:id="rId6" tooltip="Martin C. Schute (aún no redactado)" display="http://es.wikipedia.org/w/index.php?title=Martin_C._Schute&amp;action=edit&amp;redlink=1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" orientation="portrait" r:id="rId7"/>
@@ -9365,12 +9333,12 @@
         <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B4" s="5">
         <v>4</v>
@@ -9378,7 +9346,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B5" s="5">
         <v>7</v>
@@ -9386,7 +9354,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B6" s="5">
         <v>6</v>
@@ -9394,7 +9362,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B7" s="5">
         <v>44</v>
@@ -9402,7 +9370,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B8" s="5">
         <v>11</v>
@@ -9410,7 +9378,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B9" s="5">
         <v>14</v>
@@ -9418,7 +9386,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B10" s="5">
         <v>3</v>
@@ -9450,15 +9418,15 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B2" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A2&amp;"*")</f>
@@ -9467,7 +9435,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B3" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A3&amp;"*")</f>
@@ -9476,19 +9444,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B4" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A4&amp;"*")</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B5" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A5&amp;"*")</f>
@@ -9497,7 +9465,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B6" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A6&amp;"*")</f>
@@ -9506,7 +9474,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B7" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A7&amp;"*")</f>
@@ -9515,7 +9483,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B8" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A8&amp;"*")</f>
@@ -9524,7 +9492,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B9" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A9&amp;"*")</f>
@@ -9533,7 +9501,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B10" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A10&amp;"*")</f>
@@ -9542,16 +9510,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B11" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A11&amp;"*")</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B12" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A12&amp;"*")</f>
@@ -9560,7 +9528,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B13" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A13&amp;"*")</f>
@@ -9569,7 +9537,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B14" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A14&amp;"*")</f>
@@ -9578,7 +9546,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B15" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A15&amp;"*")</f>
@@ -9587,7 +9555,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B16" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A16&amp;"*")</f>
@@ -9596,7 +9564,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B17" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A17&amp;"*")</f>
@@ -9605,7 +9573,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B18" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A18&amp;"*")</f>
@@ -9614,7 +9582,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B19" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A19&amp;"*")</f>
@@ -9632,7 +9600,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B21" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A21&amp;"*")</f>
@@ -9641,7 +9609,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B22" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A22&amp;"*")</f>
@@ -9650,7 +9618,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B23" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A23&amp;"*")</f>
@@ -9659,7 +9627,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B24" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A24&amp;"*")</f>
@@ -9668,7 +9636,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B25" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A25&amp;"*")</f>
@@ -9677,7 +9645,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B26" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A26&amp;"*")</f>
@@ -9686,7 +9654,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B27" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A27&amp;"*")</f>
@@ -9704,16 +9672,16 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B29" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A29&amp;"*")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B30" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A30&amp;"*")</f>
@@ -9722,7 +9690,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B31" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A31&amp;"*")</f>
@@ -9731,7 +9699,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B32" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A32&amp;"*")</f>
@@ -9758,7 +9726,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B35" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A35&amp;"*")</f>
@@ -9767,7 +9735,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B36" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A36&amp;"*")</f>
@@ -9776,7 +9744,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B37" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A37&amp;"*")</f>
@@ -9785,7 +9753,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B38" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A38&amp;"*")</f>
@@ -9794,7 +9762,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B39" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A39&amp;"*")</f>
@@ -9803,7 +9771,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B40" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A40&amp;"*")</f>
@@ -9812,7 +9780,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B41" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A41&amp;"*")</f>
@@ -9821,7 +9789,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B42" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A42&amp;"*")</f>
@@ -9830,7 +9798,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B43" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A43&amp;"*")</f>
@@ -9839,7 +9807,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B44" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A44&amp;"*")</f>
@@ -9848,7 +9816,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B45" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A45&amp;"*")</f>
@@ -9857,7 +9825,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="18" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B46" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A46&amp;"*")</f>
@@ -9866,7 +9834,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B47" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A47&amp;"*")</f>
@@ -9902,7 +9870,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B51" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A51&amp;"*")</f>
@@ -9911,7 +9879,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="18" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B52" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A52&amp;"*")</f>
@@ -9920,7 +9888,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B53" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A53&amp;"*")</f>
@@ -9933,12 +9901,12 @@
       </c>
       <c r="B54" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A54&amp;"*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B55" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A55&amp;"*")</f>
@@ -9947,7 +9915,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B56" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A56&amp;"*")</f>
@@ -9956,7 +9924,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B57" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A57&amp;"*")</f>
@@ -9965,7 +9933,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B58" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A58&amp;"*")</f>
@@ -9974,7 +9942,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B59" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A59&amp;"*")</f>
@@ -9983,7 +9951,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B60" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A60&amp;"*")</f>
@@ -9992,7 +9960,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="18" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B61" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A61&amp;"*")</f>
@@ -10001,7 +9969,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B62" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A62&amp;"*")</f>
@@ -10010,7 +9978,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="18" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B63" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A63&amp;"*")</f>
@@ -10019,7 +9987,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="18" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B64" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A64&amp;"*")</f>
@@ -10028,7 +9996,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B65" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A65&amp;"*")</f>
@@ -10037,7 +10005,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B66" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A66&amp;"*")</f>
@@ -10046,7 +10014,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B67" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A67&amp;"*")</f>
@@ -10055,7 +10023,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B68" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A68&amp;"*")</f>
@@ -10064,7 +10032,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B69" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A69&amp;"*")</f>
@@ -10073,7 +10041,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B70" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A70&amp;"*")</f>
@@ -10082,7 +10050,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B71" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A71&amp;"*")</f>
@@ -10091,7 +10059,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="18" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B72" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A72&amp;"*")</f>
@@ -10100,7 +10068,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B73" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A73&amp;"*")</f>
@@ -10109,7 +10077,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B74" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A74&amp;"*")</f>
@@ -10118,7 +10086,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B75" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A75&amp;"*")</f>
@@ -10127,7 +10095,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="18" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B76" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A76&amp;"*")</f>
@@ -10145,7 +10113,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B78" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A78&amp;"*")</f>
@@ -10154,7 +10122,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B79" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A79&amp;"*")</f>
@@ -10163,7 +10131,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B80" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A80&amp;"*")</f>
@@ -10172,7 +10140,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B81" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A81&amp;"*")</f>
@@ -10181,7 +10149,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B82" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A82&amp;"*")</f>
@@ -10190,7 +10158,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B83" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A83&amp;"*")</f>
@@ -10199,7 +10167,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="18" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B84" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A84&amp;"*")</f>
@@ -10208,7 +10176,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B85" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A85&amp;"*")</f>
@@ -10217,7 +10185,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="18" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B86" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A86&amp;"*")</f>
@@ -10226,7 +10194,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="18" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B87" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A87&amp;"*")</f>
@@ -10235,7 +10203,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B88" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A88&amp;"*")</f>
@@ -10244,7 +10212,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B89" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A89&amp;"*")</f>
@@ -10253,7 +10221,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B90" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A90&amp;"*")</f>
@@ -10262,7 +10230,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B91" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A91&amp;"*")</f>
@@ -10271,7 +10239,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="18" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B92" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A92&amp;"*")</f>
@@ -10280,7 +10248,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B93" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A93&amp;"*")</f>
@@ -10289,7 +10257,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B94" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A94&amp;"*")</f>
@@ -10298,7 +10266,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B95" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A95&amp;"*")</f>
@@ -10307,7 +10275,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B96" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A96&amp;"*")</f>
@@ -10316,7 +10284,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B97" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A97&amp;"*")</f>
@@ -10325,7 +10293,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B98" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A98&amp;"*")</f>
@@ -10334,7 +10302,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B99" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A99&amp;"*")</f>
@@ -10343,7 +10311,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B100" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A100&amp;"*")</f>
@@ -10352,7 +10320,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B101" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A101&amp;"*")</f>
@@ -10361,7 +10329,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B102" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A102&amp;"*")</f>
@@ -10370,7 +10338,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B103" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A103&amp;"*")</f>
@@ -10379,7 +10347,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B104" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A104&amp;"*")</f>
@@ -10397,7 +10365,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B106" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A106&amp;"*")</f>
@@ -10406,7 +10374,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B107" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A107&amp;"*")</f>
@@ -10424,7 +10392,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B109" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A109&amp;"*")</f>
@@ -10433,7 +10401,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B110" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A110&amp;"*")</f>
@@ -10442,7 +10410,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B111" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A111&amp;"*")</f>
@@ -10451,7 +10419,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B112" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A112&amp;"*")</f>
@@ -10460,7 +10428,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B113" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A113&amp;"*")</f>
@@ -10469,7 +10437,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B114" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A114&amp;"*")</f>
@@ -10478,7 +10446,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="18" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B115" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A115&amp;"*")</f>
@@ -10487,7 +10455,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B116" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A116&amp;"*")</f>
@@ -10496,7 +10464,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B117" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A117&amp;"*")</f>
@@ -10505,7 +10473,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="18" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B118" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A118&amp;"*")</f>
@@ -10514,7 +10482,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B119" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A119&amp;"*")</f>
@@ -10523,7 +10491,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B120" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A120&amp;"*")</f>
@@ -10532,7 +10500,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="18" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B121" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A121&amp;"*")</f>
@@ -10541,7 +10509,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B122" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A122&amp;"*")</f>
@@ -10550,7 +10518,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B123" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A123&amp;"*")</f>
@@ -10559,7 +10527,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="18" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B124" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A124&amp;"*")</f>
@@ -10568,7 +10536,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B125" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A125&amp;"*")</f>
@@ -10577,7 +10545,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B126" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A126&amp;"*")</f>
@@ -10586,7 +10554,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B127" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A127&amp;"*")</f>
@@ -10595,7 +10563,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B128" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A128&amp;"*")</f>
@@ -10604,7 +10572,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B129" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A129&amp;"*")</f>
@@ -10613,7 +10581,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B130" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A130&amp;"*")</f>
@@ -10622,7 +10590,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B131" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A131&amp;"*")</f>
@@ -10631,7 +10599,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B132" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A132&amp;"*")</f>
@@ -10640,7 +10608,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B133" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A133&amp;"*")</f>
@@ -10649,7 +10617,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B134" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A134&amp;"*")</f>
@@ -10658,7 +10626,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B135" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A135&amp;"*")</f>
@@ -10667,7 +10635,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B136" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A136&amp;"*")</f>
@@ -10676,7 +10644,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B137" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A137&amp;"*")</f>
@@ -10685,7 +10653,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B138" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A138&amp;"*")</f>
@@ -10694,7 +10662,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B139" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A139&amp;"*")</f>
@@ -10703,7 +10671,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B140" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A140&amp;"*")</f>
@@ -10712,7 +10680,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B141" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A141&amp;"*")</f>
@@ -10721,7 +10689,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B142" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A142&amp;"*")</f>
@@ -10730,7 +10698,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B143" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A143&amp;"*")</f>
@@ -10748,7 +10716,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B145" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A145&amp;"*")</f>
@@ -10757,7 +10725,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B146" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A146&amp;"*")</f>
@@ -10766,7 +10734,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B147" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A147&amp;"*")</f>
@@ -10775,7 +10743,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B148" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A148&amp;"*")</f>
@@ -10784,7 +10752,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B149" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A149&amp;"*")</f>
@@ -10793,7 +10761,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B150" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A150&amp;"*")</f>
@@ -10802,7 +10770,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B151" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A151&amp;"*")</f>
@@ -10811,7 +10779,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B152" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A152&amp;"*")</f>
@@ -10820,7 +10788,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B153" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A153&amp;"*")</f>
@@ -10829,7 +10797,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B154" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A154&amp;"*")</f>
@@ -10838,7 +10806,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B155" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A155&amp;"*")</f>
@@ -10847,7 +10815,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B156" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A156&amp;"*")</f>
@@ -10856,7 +10824,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="18" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B157" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A157&amp;"*")</f>
@@ -10865,7 +10833,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B158" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A158&amp;"*")</f>
@@ -10874,7 +10842,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B159" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A159&amp;"*")</f>
@@ -10883,7 +10851,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B160" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A160&amp;"*")</f>
@@ -10892,7 +10860,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B161" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A161&amp;"*")</f>
@@ -10901,7 +10869,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B162" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A162&amp;"*")</f>
@@ -10910,7 +10878,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B163" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A163&amp;"*")</f>
@@ -10919,7 +10887,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B164" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A164&amp;"*")</f>
@@ -10928,7 +10896,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B165" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A165&amp;"*")</f>
@@ -10955,7 +10923,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B168" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A168&amp;"*")</f>
@@ -10964,7 +10932,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B169" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A169&amp;"*")</f>
@@ -10973,7 +10941,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B170" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A170&amp;"*")</f>
@@ -10994,117 +10962,117 @@
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" s="18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" s="18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.3">
@@ -11119,67 +11087,67 @@
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" s="18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" s="18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.3">
@@ -11189,52 +11157,52 @@
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" s="18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" s="18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.3">
@@ -11244,207 +11212,207 @@
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343" s="18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346" s="18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348" s="18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A352" s="18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A355" s="18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356" s="18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358" s="18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A360" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364" s="18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A366" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A368" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A369" s="18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A370" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A371" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A372" s="18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A374" s="18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A375" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A376" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A377" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A378" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A379" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A380" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A381" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A382" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A383" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.3">
@@ -11454,207 +11422,207 @@
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A386" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A388" s="18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A389" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A390" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A391" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A392" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A393" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A395" s="18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A396" s="18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A397" s="18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A398" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A399" s="18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A400" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A401" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A402" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A403" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A404" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A405" s="18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A406" s="18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A407" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A408" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A409" s="18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A410" s="18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A411" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A412" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A413" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A414" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A415" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A416" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A417" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A418" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A419" s="18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A420" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A421" s="18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A422" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A423" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A424" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A425" s="18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/0-varios/Archivos-Office/Prods-Catálogo.xlsx
+++ b/0-varios/Archivos-Office/Prods-Catálogo.xlsx
@@ -4802,8 +4802,8 @@
   <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -6429,7 +6429,7 @@
       <c r="B45" t="s">
         <v>307</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="19" t="s">
         <v>159</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -6467,7 +6467,7 @@
       <c r="B46" t="s">
         <v>307</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="19" t="s">
         <v>49</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -6505,7 +6505,7 @@
       <c r="B47" t="s">
         <v>307</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="19" t="s">
         <v>166</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -6543,7 +6543,7 @@
       <c r="B48" t="s">
         <v>307</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="19" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -6581,7 +6581,7 @@
       <c r="B49" t="s">
         <v>307</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -6619,7 +6619,7 @@
       <c r="B50" t="s">
         <v>307</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="19" t="s">
         <v>299</v>
       </c>
       <c r="G50" s="2" t="s">

--- a/0-varios/Archivos-Office/Prods-Catálogo.xlsx
+++ b/0-varios/Archivos-Office/Prods-Catálogo.xlsx
@@ -4802,8 +4802,8 @@
   <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -6648,7 +6648,7 @@
       <c r="B51" t="s">
         <v>307</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="19" t="s">
         <v>43</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -6683,7 +6683,7 @@
       <c r="B52" t="s">
         <v>307</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="19" t="s">
         <v>167</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -6756,7 +6756,7 @@
       <c r="B54" t="s">
         <v>307</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="19" t="s">
         <v>58</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -6794,7 +6794,7 @@
       <c r="B55" t="s">
         <v>307</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="19" t="s">
         <v>44</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -6829,7 +6829,7 @@
       <c r="B56" t="s">
         <v>307</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="19" t="s">
         <v>316</v>
       </c>
       <c r="G56" t="s">
@@ -6858,7 +6858,7 @@
       <c r="B57" t="s">
         <v>307</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -6896,7 +6896,7 @@
       <c r="B58" t="s">
         <v>307</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="19" t="s">
         <v>60</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -6934,7 +6934,7 @@
       <c r="B59" t="s">
         <v>307</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="19" t="s">
         <v>54</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -6972,7 +6972,7 @@
       <c r="B60" t="s">
         <v>307</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="19" t="s">
         <v>59</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -7010,7 +7010,7 @@
       <c r="B61" t="s">
         <v>307</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -7048,7 +7048,7 @@
       <c r="B62" t="s">
         <v>307</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="19" t="s">
         <v>164</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -7943,7 +7943,7 @@
       <c r="B88" t="s">
         <v>310</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="19" t="s">
         <v>46</v>
       </c>
       <c r="E88" s="2" t="s">

--- a/0-varios/Archivos-Office/Prods-Catálogo.xlsx
+++ b/0-varios/Archivos-Office/Prods-Catálogo.xlsx
@@ -4802,8 +4802,8 @@
   <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C88" sqref="C88"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -7625,7 +7625,7 @@
       <c r="B79" t="s">
         <v>309</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="19" t="s">
         <v>128</v>
       </c>
       <c r="E79" s="2" t="s">
@@ -8158,7 +8158,7 @@
       <c r="B95" t="s">
         <v>260</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="19" t="s">
         <v>40</v>
       </c>
       <c r="G95" t="s">
@@ -8187,7 +8187,7 @@
       <c r="B96" t="s">
         <v>260</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="19" t="s">
         <v>37</v>
       </c>
       <c r="F96" s="2">
@@ -8219,7 +8219,7 @@
       <c r="B97" t="s">
         <v>260</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="19" t="s">
         <v>238</v>
       </c>
       <c r="G97" t="s">
@@ -8245,7 +8245,7 @@
       <c r="B98" t="s">
         <v>260</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="19" t="s">
         <v>62</v>
       </c>
       <c r="F98" s="2">
@@ -8277,7 +8277,7 @@
       <c r="B99" t="s">
         <v>260</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="19" t="s">
         <v>7</v>
       </c>
       <c r="F99" s="2">
@@ -8309,7 +8309,7 @@
       <c r="B100" t="s">
         <v>260</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="19" t="s">
         <v>57</v>
       </c>
       <c r="G100" t="s">
@@ -8338,7 +8338,7 @@
       <c r="B101" t="s">
         <v>260</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="19" t="s">
         <v>239</v>
       </c>
       <c r="G101" t="s">
@@ -8364,7 +8364,7 @@
       <c r="B102" t="s">
         <v>260</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="19" t="s">
         <v>13</v>
       </c>
       <c r="F102" s="2">
@@ -8396,7 +8396,7 @@
       <c r="B103" t="s">
         <v>260</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="19" t="s">
         <v>243</v>
       </c>
       <c r="G103" t="s">
@@ -8422,7 +8422,7 @@
       <c r="B104" t="s">
         <v>260</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="19" t="s">
         <v>16</v>
       </c>
       <c r="F104" s="2">
@@ -8454,7 +8454,7 @@
       <c r="B105" t="s">
         <v>261</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="19" t="s">
         <v>4</v>
       </c>
       <c r="G105"/>
@@ -8478,7 +8478,7 @@
       <c r="B106" t="s">
         <v>261</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="19" t="s">
         <v>251</v>
       </c>
       <c r="I106" s="1" t="str">
@@ -8501,7 +8501,7 @@
       <c r="B107" t="s">
         <v>261</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="19" t="s">
         <v>246</v>
       </c>
       <c r="I107" s="1" t="str">
@@ -8524,7 +8524,7 @@
       <c r="B108" t="s">
         <v>261</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="19" t="s">
         <v>247</v>
       </c>
       <c r="I108" s="1" t="str">
@@ -8547,7 +8547,7 @@
       <c r="B109" t="s">
         <v>261</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="19" t="s">
         <v>248</v>
       </c>
       <c r="I109" s="1" t="str">
@@ -8570,7 +8570,7 @@
       <c r="B110" t="s">
         <v>261</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="19" t="s">
         <v>249</v>
       </c>
       <c r="I110" s="1" t="str">
@@ -8593,7 +8593,7 @@
       <c r="B111" t="s">
         <v>261</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="19" t="s">
         <v>250</v>
       </c>
       <c r="I111" s="1" t="str">
@@ -8616,7 +8616,7 @@
       <c r="B112" t="s">
         <v>261</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="19" t="s">
         <v>252</v>
       </c>
       <c r="I112" s="1" t="str">
@@ -8639,7 +8639,7 @@
       <c r="B113" t="s">
         <v>261</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="19" t="s">
         <v>253</v>
       </c>
       <c r="I113" s="1" t="str">
@@ -8662,7 +8662,7 @@
       <c r="B114" t="s">
         <v>261</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="19" t="s">
         <v>303</v>
       </c>
       <c r="I114" s="1" t="str">
@@ -8685,7 +8685,7 @@
       <c r="B115" t="s">
         <v>261</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="19" t="s">
         <v>254</v>
       </c>
       <c r="I115" s="1" t="str">
@@ -8708,7 +8708,7 @@
       <c r="B116" t="s">
         <v>262</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="19" t="s">
         <v>10</v>
       </c>
       <c r="F116" s="2">
@@ -8734,7 +8734,7 @@
       <c r="B117" t="s">
         <v>262</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="19" t="s">
         <v>5</v>
       </c>
       <c r="F117" s="2">
@@ -8760,7 +8760,7 @@
       <c r="B118" t="s">
         <v>262</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="19" t="s">
         <v>265</v>
       </c>
       <c r="I118" s="1" t="str">
@@ -8783,7 +8783,7 @@
       <c r="B119" t="s">
         <v>262</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="19" t="s">
         <v>6</v>
       </c>
       <c r="I119" s="1" t="str">
@@ -8806,7 +8806,7 @@
       <c r="B120" t="s">
         <v>262</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="19" t="s">
         <v>255</v>
       </c>
       <c r="I120" s="1" t="str">
@@ -8829,7 +8829,7 @@
       <c r="B121" t="s">
         <v>262</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="19" t="s">
         <v>256</v>
       </c>
       <c r="I121" s="1" t="str">
@@ -8852,7 +8852,7 @@
       <c r="B122" t="s">
         <v>262</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="19" t="s">
         <v>257</v>
       </c>
       <c r="I122" s="1" t="str">
@@ -8875,7 +8875,7 @@
       <c r="B123" t="s">
         <v>262</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="19" t="s">
         <v>36</v>
       </c>
       <c r="I123" s="1" t="str">
@@ -8898,7 +8898,7 @@
       <c r="B124" t="s">
         <v>262</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F124" s="2">
@@ -8924,7 +8924,7 @@
       <c r="B125" t="s">
         <v>262</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="19" t="s">
         <v>258</v>
       </c>
       <c r="I125" s="1" t="str">
@@ -8947,7 +8947,7 @@
       <c r="B126" t="s">
         <v>262</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="19" t="s">
         <v>302</v>
       </c>
       <c r="I126" s="1" t="str">
@@ -8970,7 +8970,7 @@
       <c r="B127" t="s">
         <v>262</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="19" t="s">
         <v>311</v>
       </c>
       <c r="I127" s="1" t="str">
@@ -8993,7 +8993,7 @@
       <c r="B128" t="s">
         <v>262</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="19" t="s">
         <v>38</v>
       </c>
       <c r="F128" s="2">
@@ -9019,7 +9019,7 @@
       <c r="B129" t="s">
         <v>263</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="19" t="s">
         <v>259</v>
       </c>
       <c r="I129" s="1" t="str">
@@ -9042,7 +9042,7 @@
       <c r="B130" t="s">
         <v>263</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="19" t="s">
         <v>39</v>
       </c>
       <c r="I130" s="1" t="str">
@@ -9065,7 +9065,7 @@
       <c r="B131" t="s">
         <v>263</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="19" t="s">
         <v>47</v>
       </c>
       <c r="I131" s="1" t="str">
@@ -9088,7 +9088,7 @@
       <c r="B132" t="s">
         <v>263</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="19" t="s">
         <v>264</v>
       </c>
       <c r="I132" s="1" t="str">

--- a/0-varios/Archivos-Office/Prods-Catálogo.xlsx
+++ b/0-varios/Archivos-Office/Prods-Catálogo.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="564">
   <si>
     <t>Título</t>
   </si>
@@ -1750,18 +1750,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1803,8 +1796,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1828,6 +1833,11 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1840,28 +1850,28 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1885,18 +1895,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bueno" xfId="2" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="1" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -4799,11 +4827,11 @@
   <sheetPr codeName="Hoja3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K132"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -6721,7 +6749,7 @@
       <c r="B53" t="s">
         <v>307</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="20" t="s">
         <v>235</v>
       </c>
       <c r="E53" s="2" t="s">
@@ -7086,7 +7114,7 @@
       <c r="B63" t="s">
         <v>308</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E63" s="13" t="s">
@@ -7121,7 +7149,7 @@
       <c r="B64" t="s">
         <v>308</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="19" t="s">
         <v>116</v>
       </c>
       <c r="E64" s="2" t="s">
@@ -7156,7 +7184,7 @@
       <c r="B65" t="s">
         <v>308</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -7191,7 +7219,7 @@
       <c r="B66" t="s">
         <v>308</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="19" t="s">
         <v>118</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -7226,7 +7254,7 @@
       <c r="B67" t="s">
         <v>308</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="20" t="s">
         <v>120</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -7261,7 +7289,7 @@
       <c r="B68" t="s">
         <v>308</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="19" t="s">
         <v>301</v>
       </c>
       <c r="G68" s="2" t="s">
@@ -7287,7 +7315,7 @@
       <c r="B69" t="s">
         <v>308</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="19" t="s">
         <v>50</v>
       </c>
       <c r="E69" s="13" t="s">
@@ -7322,7 +7350,7 @@
       <c r="B70" t="s">
         <v>308</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="19" t="s">
         <v>51</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -7357,7 +7385,7 @@
       <c r="B71" t="s">
         <v>308</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="19" t="s">
         <v>12</v>
       </c>
       <c r="E71" s="2" t="s">
@@ -7392,7 +7420,7 @@
       <c r="B72" t="s">
         <v>308</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E72" s="2" t="s">
@@ -7427,7 +7455,7 @@
       <c r="B73" t="s">
         <v>308</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E73" s="13" t="s">
@@ -7462,7 +7490,7 @@
       <c r="B74" t="s">
         <v>309</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="19" t="s">
         <v>125</v>
       </c>
       <c r="E74" s="2" t="s">
@@ -7497,7 +7525,7 @@
       <c r="B75" t="s">
         <v>309</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="19" t="s">
         <v>26</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -7532,7 +7560,7 @@
       <c r="B76" t="s">
         <v>309</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="20" t="s">
         <v>126</v>
       </c>
       <c r="E76" s="2" t="s">
@@ -7567,7 +7595,7 @@
       <c r="B77" t="s">
         <v>309</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="19" t="s">
         <v>127</v>
       </c>
       <c r="E77" s="2" t="s">
@@ -7602,7 +7630,7 @@
       <c r="B78" t="s">
         <v>309</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="20" t="s">
         <v>300</v>
       </c>
       <c r="I78" s="1" t="str">
@@ -7660,7 +7688,7 @@
       <c r="B80" t="s">
         <v>309</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D80" s="2" t="s">
@@ -7698,7 +7726,7 @@
       <c r="B81" t="s">
         <v>309</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="19" t="s">
         <v>134</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -7733,7 +7761,7 @@
       <c r="B82" t="s">
         <v>309</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="19" t="s">
         <v>129</v>
       </c>
       <c r="E82" s="2" t="s">
@@ -7768,7 +7796,7 @@
       <c r="B83" t="s">
         <v>309</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="19" t="s">
         <v>138</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -7803,7 +7831,7 @@
       <c r="B84" t="s">
         <v>309</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E84" t="s">
@@ -7838,7 +7866,7 @@
       <c r="B85" t="s">
         <v>309</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E85" s="2" t="s">
@@ -7873,7 +7901,7 @@
       <c r="B86" t="s">
         <v>309</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -7908,7 +7936,7 @@
       <c r="B87" t="s">
         <v>309</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E87" s="2" t="s">
@@ -7978,7 +8006,7 @@
       <c r="B89" t="s">
         <v>310</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
@@ -8013,7 +8041,7 @@
       <c r="B90" t="s">
         <v>310</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="20" t="s">
         <v>148</v>
       </c>
       <c r="E90" s="2" t="s">
@@ -8048,7 +8076,7 @@
       <c r="B91" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="20" t="s">
         <v>81</v>
       </c>
       <c r="I91" s="1" t="str">
@@ -8071,7 +8099,7 @@
       <c r="B92" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="20" t="s">
         <v>144</v>
       </c>
       <c r="G92" s="2" t="s">
@@ -8100,7 +8128,7 @@
       <c r="B93" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="20" t="s">
         <v>145</v>
       </c>
       <c r="G93" s="2" t="s">
@@ -8129,7 +8157,7 @@
       <c r="B94" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="20" t="s">
         <v>143</v>
       </c>
       <c r="G94" s="2" t="s">
@@ -9104,9 +9132,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C133" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K132"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E71" r:id="rId1" display="http://www.imdb.com/name/nm0863254/?ref_=tt_ov_dr"/>
     <hyperlink ref="E70" r:id="rId2" display="http://www.imdb.com/name/nm0851537/?ref_=tt_ov_dr"/>
@@ -9411,12 +9450,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="11.375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>563</v>
       </c>
@@ -9424,7 +9463,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>347</v>
       </c>
@@ -9433,7 +9472,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>330</v>
       </c>
@@ -9442,7 +9481,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>327</v>
       </c>
@@ -9454,7 +9493,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>336</v>
       </c>
@@ -9463,7 +9502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>346</v>
       </c>
@@ -9472,7 +9511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>560</v>
       </c>
@@ -9481,7 +9520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>405</v>
       </c>
@@ -9490,7 +9529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>355</v>
       </c>
@@ -9499,7 +9538,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>400</v>
       </c>
@@ -9508,7 +9547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>559</v>
       </c>
@@ -9517,7 +9556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>414</v>
       </c>
@@ -9526,7 +9565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>558</v>
       </c>
@@ -9535,7 +9574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>557</v>
       </c>
@@ -9544,7 +9583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>556</v>
       </c>
@@ -9553,7 +9592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>555</v>
       </c>
@@ -9562,7 +9601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>554</v>
       </c>
@@ -9571,7 +9610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
         <v>322</v>
       </c>
@@ -9580,7 +9619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
         <v>553</v>
       </c>
@@ -9589,7 +9628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>236</v>
       </c>
@@ -9598,7 +9637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>409</v>
       </c>
@@ -9607,7 +9646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>552</v>
       </c>
@@ -9616,7 +9655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>551</v>
       </c>
@@ -9625,7 +9664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
         <v>550</v>
       </c>
@@ -9634,7 +9673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
         <v>549</v>
       </c>
@@ -9643,7 +9682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
         <v>548</v>
       </c>
@@ -9652,7 +9691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
         <v>547</v>
       </c>
@@ -9661,7 +9700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>83</v>
       </c>
@@ -9670,7 +9709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>546</v>
       </c>
@@ -9679,7 +9718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
         <v>545</v>
       </c>
@@ -9688,7 +9727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
         <v>544</v>
       </c>
@@ -9697,7 +9736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
         <v>339</v>
       </c>
@@ -9706,7 +9745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
         <v>85</v>
       </c>
@@ -9715,7 +9754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
         <v>86</v>
       </c>
@@ -9724,7 +9763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
         <v>543</v>
       </c>
@@ -9733,7 +9772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>542</v>
       </c>
@@ -9742,16 +9781,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
         <v>541</v>
       </c>
       <c r="B37" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A37&amp;"*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
         <v>540</v>
       </c>
@@ -9760,16 +9799,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
         <v>539</v>
       </c>
       <c r="B39" s="17">
         <f>COUNTIF(BD!C:C,"*"&amp;A39&amp;"*")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
         <v>538</v>
       </c>
@@ -9778,7 +9817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
         <v>537</v>
       </c>
@@ -9787,7 +9826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
         <v>536</v>
       </c>
@@ -9796,7 +9835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
         <v>535</v>
       </c>
@@ -9805,7 +9844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
         <v>534</v>
       </c>
@@ -9814,7 +9853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
         <v>533</v>
       </c>
@@ -9823,7 +9862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>532</v>
       </c>
@@ -9832,7 +9871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
         <v>290</v>
       </c>
@@ -9841,7 +9880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>26</v>
       </c>
@@ -9850,7 +9889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
         <v>59</v>
       </c>
@@ -9859,7 +9898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
         <v>126</v>
       </c>
@@ -9868,7 +9907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
         <v>531</v>
       </c>
@@ -9877,7 +9916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
         <v>530</v>
       </c>
@@ -9886,7 +9925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
         <v>529</v>
       </c>
@@ -9895,7 +9934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
         <v>163</v>
       </c>
@@ -9904,7 +9943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A55" s="18" t="s">
         <v>528</v>
       </c>
@@ -9913,7 +9952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
         <v>527</v>
       </c>
@@ -9922,7 +9961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
         <v>526</v>
       </c>
@@ -9931,7 +9970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
         <v>525</v>
       </c>
@@ -9940,7 +9979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
         <v>524</v>
       </c>
@@ -9949,7 +9988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A60" s="18" t="s">
         <v>523</v>
       </c>
@@ -9958,7 +9997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A61" s="18" t="s">
         <v>522</v>
       </c>
@@ -9967,7 +10006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A62" s="18" t="s">
         <v>521</v>
       </c>
@@ -9976,7 +10015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A63" s="18" t="s">
         <v>520</v>
       </c>
@@ -9985,7 +10024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A64" s="18" t="s">
         <v>519</v>
       </c>
@@ -9994,7 +10033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A65" s="18" t="s">
         <v>518</v>
       </c>
@@ -10003,7 +10042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A66" s="18" t="s">
         <v>517</v>
       </c>
@@ -10012,7 +10051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A67" s="18" t="s">
         <v>516</v>
       </c>
@@ -10021,7 +10060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A68" s="18" t="s">
         <v>515</v>
       </c>
@@ -10030,7 +10069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A69" s="18" t="s">
         <v>514</v>
       </c>
@@ -10039,7 +10078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A70" s="18" t="s">
         <v>513</v>
       </c>
@@ -10048,7 +10087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A71" s="18" t="s">
         <v>512</v>
       </c>
@@ -10057,7 +10096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A72" s="18" t="s">
         <v>511</v>
       </c>
@@ -10066,7 +10105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A73" s="18" t="s">
         <v>510</v>
       </c>
@@ -10075,7 +10114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A74" s="18" t="s">
         <v>509</v>
       </c>
@@ -10084,7 +10123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A75" s="18" t="s">
         <v>300</v>
       </c>
@@ -10093,7 +10132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A76" s="18" t="s">
         <v>508</v>
       </c>
@@ -10102,7 +10141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A77" s="18" t="s">
         <v>128</v>
       </c>
@@ -10111,7 +10150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A78" s="18" t="s">
         <v>507</v>
       </c>
@@ -10120,7 +10159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A79" s="18" t="s">
         <v>506</v>
       </c>
@@ -10129,7 +10168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A80" s="18" t="s">
         <v>505</v>
       </c>
@@ -10138,7 +10177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A81" s="18" t="s">
         <v>504</v>
       </c>
@@ -10147,7 +10186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A82" s="18" t="s">
         <v>503</v>
       </c>
@@ -10156,7 +10195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A83" s="18" t="s">
         <v>502</v>
       </c>
@@ -10165,7 +10204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A84" s="18" t="s">
         <v>501</v>
       </c>
@@ -10174,7 +10213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A85" s="18" t="s">
         <v>500</v>
       </c>
@@ -10183,7 +10222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A86" s="18" t="s">
         <v>499</v>
       </c>
@@ -10192,7 +10231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A87" s="18" t="s">
         <v>498</v>
       </c>
@@ -10201,7 +10240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A88" s="18" t="s">
         <v>497</v>
       </c>
@@ -10210,7 +10249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A89" s="18" t="s">
         <v>496</v>
       </c>
@@ -10219,7 +10258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A90" s="18" t="s">
         <v>495</v>
       </c>
@@ -10228,7 +10267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A91" s="18" t="s">
         <v>494</v>
       </c>
@@ -10237,7 +10276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A92" s="18" t="s">
         <v>493</v>
       </c>
@@ -10246,7 +10285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A93" s="18" t="s">
         <v>492</v>
       </c>
@@ -10255,7 +10294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A94" s="18" t="s">
         <v>491</v>
       </c>
@@ -10264,7 +10303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A95" s="18" t="s">
         <v>490</v>
       </c>
@@ -10273,7 +10312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A96" s="18" t="s">
         <v>489</v>
       </c>
@@ -10282,7 +10321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A97" s="18" t="s">
         <v>488</v>
       </c>
@@ -10291,7 +10330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A98" s="18" t="s">
         <v>487</v>
       </c>
@@ -10300,7 +10339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A99" s="18" t="s">
         <v>486</v>
       </c>
@@ -10309,7 +10348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A100" s="18" t="s">
         <v>485</v>
       </c>
@@ -10318,7 +10357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A101" s="18" t="s">
         <v>484</v>
       </c>
@@ -10327,7 +10366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A102" s="18" t="s">
         <v>483</v>
       </c>
@@ -10336,7 +10375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A103" s="18" t="s">
         <v>482</v>
       </c>
@@ -10345,7 +10384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A104" s="18" t="s">
         <v>481</v>
       </c>
@@ -10354,7 +10393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A105" s="18" t="s">
         <v>28</v>
       </c>
@@ -10363,7 +10402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A106" s="18" t="s">
         <v>480</v>
       </c>
@@ -10372,7 +10411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A107" s="18" t="s">
         <v>479</v>
       </c>
@@ -10381,7 +10420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A108" s="18" t="s">
         <v>12</v>
       </c>
@@ -10390,7 +10429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A109" s="18" t="s">
         <v>478</v>
       </c>
@@ -10399,7 +10438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A110" s="18" t="s">
         <v>477</v>
       </c>
@@ -10408,7 +10447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A111" s="18" t="s">
         <v>476</v>
       </c>
@@ -10417,7 +10456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A112" s="18" t="s">
         <v>475</v>
       </c>
@@ -10426,7 +10465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A113" s="18" t="s">
         <v>474</v>
       </c>
@@ -10435,7 +10474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A114" s="18" t="s">
         <v>473</v>
       </c>
@@ -10444,7 +10483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A115" s="18" t="s">
         <v>472</v>
       </c>
@@ -10453,7 +10492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A116" s="18" t="s">
         <v>471</v>
       </c>
@@ -10462,7 +10501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A117" s="18" t="s">
         <v>470</v>
       </c>
@@ -10471,7 +10510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A118" s="18" t="s">
         <v>469</v>
       </c>
@@ -10480,7 +10519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A119" s="18" t="s">
         <v>468</v>
       </c>
@@ -10489,7 +10528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A120" s="18" t="s">
         <v>467</v>
       </c>
@@ -10498,7 +10537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A121" s="18" t="s">
         <v>466</v>
       </c>
@@ -10507,7 +10546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A122" s="18" t="s">
         <v>465</v>
       </c>
@@ -10516,7 +10555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A123" s="18" t="s">
         <v>464</v>
       </c>
@@ -10525,7 +10564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A124" s="18" t="s">
         <v>463</v>
       </c>
@@ -10534,7 +10573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A125" s="18" t="s">
         <v>462</v>
       </c>
@@ -10543,7 +10582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A126" s="18" t="s">
         <v>461</v>
       </c>
@@ -10552,7 +10591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A127" s="18" t="s">
         <v>460</v>
       </c>
@@ -10561,7 +10600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A128" s="18" t="s">
         <v>459</v>
       </c>
@@ -10570,7 +10609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A129" s="18" t="s">
         <v>458</v>
       </c>
@@ -10579,7 +10618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A130" s="18" t="s">
         <v>457</v>
       </c>
@@ -10588,7 +10627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A131" s="18" t="s">
         <v>456</v>
       </c>
@@ -10597,7 +10636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A132" s="18" t="s">
         <v>455</v>
       </c>
@@ -10606,7 +10645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A133" s="18" t="s">
         <v>454</v>
       </c>
@@ -10615,7 +10654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A134" s="18" t="s">
         <v>453</v>
       </c>
@@ -10624,7 +10663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A135" s="18" t="s">
         <v>452</v>
       </c>
@@ -10633,7 +10672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A136" s="18" t="s">
         <v>451</v>
       </c>
@@ -10642,7 +10681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A137" s="18" t="s">
         <v>450</v>
       </c>
@@ -10651,7 +10690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A138" s="18" t="s">
         <v>449</v>
       </c>
@@ -10660,7 +10699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A139" s="18" t="s">
         <v>448</v>
       </c>
@@ -10669,7 +10708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A140" s="18" t="s">
         <v>447</v>
       </c>
@@ -10678,7 +10717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A141" s="18" t="s">
         <v>446</v>
       </c>
@@ -10687,7 +10726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A142" s="18" t="s">
         <v>445</v>
       </c>
@@ -10696,7 +10735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A143" s="18" t="s">
         <v>444</v>
       </c>
@@ -10705,7 +10744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A144" s="18" t="s">
         <v>43</v>
       </c>
@@ -10714,7 +10753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A145" s="18" t="s">
         <v>443</v>
       </c>
@@ -10723,7 +10762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A146" s="18" t="s">
         <v>442</v>
       </c>
@@ -10732,7 +10771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A147" s="18" t="s">
         <v>441</v>
       </c>
@@ -10741,7 +10780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A148" s="18" t="s">
         <v>440</v>
       </c>
@@ -10750,7 +10789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A149" s="18" t="s">
         <v>439</v>
       </c>
@@ -10759,7 +10798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A150" s="18" t="s">
         <v>438</v>
       </c>
@@ -10768,7 +10807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A151" s="18" t="s">
         <v>437</v>
       </c>
@@ -10777,7 +10816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A152" s="18" t="s">
         <v>436</v>
       </c>
@@ -10786,7 +10825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A153" s="18" t="s">
         <v>435</v>
       </c>
@@ -10795,7 +10834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A154" s="18" t="s">
         <v>434</v>
       </c>
@@ -10804,7 +10843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A155" s="18" t="s">
         <v>433</v>
       </c>
@@ -10813,7 +10852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A156" s="18" t="s">
         <v>432</v>
       </c>
@@ -10822,7 +10861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A157" s="18" t="s">
         <v>431</v>
       </c>
@@ -10831,7 +10870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A158" s="18" t="s">
         <v>430</v>
       </c>
@@ -10840,7 +10879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A159" s="18" t="s">
         <v>429</v>
       </c>
@@ -10849,7 +10888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A160" s="18" t="s">
         <v>428</v>
       </c>
@@ -10858,7 +10897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A161" s="18" t="s">
         <v>427</v>
       </c>
@@ -10867,7 +10906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A162" s="18" t="s">
         <v>426</v>
       </c>
@@ -10876,7 +10915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A163" s="18" t="s">
         <v>425</v>
       </c>
@@ -10885,7 +10924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A164" s="18" t="s">
         <v>424</v>
       </c>
@@ -10894,7 +10933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A165" s="18" t="s">
         <v>423</v>
       </c>
@@ -10903,7 +10942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A166" s="18" t="s">
         <v>54</v>
       </c>
@@ -10912,7 +10951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A167" s="18" t="s">
         <v>88</v>
       </c>
@@ -10921,7 +10960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A168" s="18" t="s">
         <v>422</v>
       </c>
@@ -10930,7 +10969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A169" s="18" t="s">
         <v>421</v>
       </c>
@@ -10939,7 +10978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A170" s="18" t="s">
         <v>420</v>
       </c>
@@ -10948,7 +10987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A171" s="18" t="s">
         <v>72</v>
       </c>
@@ -10957,670 +10996,670 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A292" s="18"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A293" s="18" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A294" s="18" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A295" s="18" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A296" s="18" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A297" s="18" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A298" s="18" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A299" s="18" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A300" s="18" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A301" s="18" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A302" s="18" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A303" s="18" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A304" s="18" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A305" s="18" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A306" s="18" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A307" s="18" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A308" s="18" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A309" s="18" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A310" s="18" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A311" s="18" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A312" s="18" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A313" s="18" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A314" s="18" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A315" s="18" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A316" s="18" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A317" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A318" s="18" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A319" s="18" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A320" s="18" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A321" s="18" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A322" s="18" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A323" s="18" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A324" s="18" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A325" s="18" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A326" s="18" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A327" s="18" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A328" s="18" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A329" s="18" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A330" s="18" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A331" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A332" s="18" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A333" s="18" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A334" s="18" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A335" s="18" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A336" s="18" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A337" s="18" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A338" s="18" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A339" s="18" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A340" s="18" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A341" s="18" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A342" s="18" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A343" s="18" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A344" s="18" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A345" s="18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A346" s="18" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A347" s="18" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A348" s="18" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A349" s="18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A350" s="18" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A351" s="18" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A352" s="18" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A353" s="18" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A354" s="18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A355" s="18" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A356" s="18" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A357" s="18" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A358" s="18" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A359" s="18" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A360" s="18" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A361" s="18" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A362" s="18" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A363" s="18" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A364" s="18" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A365" s="18" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A366" s="18" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A367" s="18" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A368" s="18" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A369" s="18" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A370" s="18" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A371" s="18" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A372" s="18" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A373" s="18" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A374" s="18" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A375" s="18" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A376" s="18" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A377" s="18" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A378" s="18" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A379" s="18" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A380" s="18" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A381" s="18" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A382" s="18" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A383" s="18" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A384" s="18" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A385" s="18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A386" s="18" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A387" s="18" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A388" s="18" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A389" s="18" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A390" s="18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A391" s="18" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A392" s="18" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A393" s="18" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A394" s="18" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A395" s="18" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A396" s="18" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A397" s="18" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A398" s="18" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A399" s="18" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A400" s="18" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A401" s="18" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A402" s="18" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A403" s="18" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A404" s="18" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A405" s="18" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A406" s="18" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A407" s="18" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A408" s="18" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A409" s="18" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A410" s="18" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A411" s="18" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A412" s="18" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A413" s="18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A414" s="18" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A415" s="18" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A416" s="18" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A417" s="18" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A418" s="18" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A419" s="18" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A420" s="18" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A421" s="18" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A422" s="18" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A423" s="18" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A424" s="18" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A425" s="18" t="s">
         <v>318</v>
       </c>

--- a/0-varios/Archivos-Office/Prods-Catálogo.xlsx
+++ b/0-varios/Archivos-Office/Prods-Catálogo.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Resumen" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BD!$A$1:$K$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BD!$A$1:$K$133</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">BD!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -1907,20 +1907,12 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4824,14 +4816,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja3">
+  <sheetPr codeName="Hoja3" filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C133" sqref="C133"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -4885,7 +4877,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>64</v>
       </c>
@@ -4923,7 +4915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>64</v>
       </c>
@@ -4961,7 +4953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>64</v>
       </c>
@@ -4999,7 +4991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>64</v>
       </c>
@@ -5037,7 +5029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -5075,7 +5067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>64</v>
       </c>
@@ -5104,7 +5096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>64</v>
       </c>
@@ -5133,7 +5125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>64</v>
       </c>
@@ -5162,7 +5154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>64</v>
       </c>
@@ -5191,7 +5183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>64</v>
       </c>
@@ -5220,7 +5212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>64</v>
       </c>
@@ -5249,7 +5241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>64</v>
       </c>
@@ -5287,7 +5279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>64</v>
       </c>
@@ -5325,7 +5317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>64</v>
       </c>
@@ -5360,7 +5352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>64</v>
       </c>
@@ -5398,7 +5390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
@@ -5436,7 +5428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>64</v>
       </c>
@@ -5474,7 +5466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
@@ -5512,7 +5504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>64</v>
       </c>
@@ -5547,7 +5539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
@@ -5585,7 +5577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>64</v>
       </c>
@@ -5623,7 +5615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>64</v>
       </c>
@@ -5661,7 +5653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>64</v>
       </c>
@@ -5696,7 +5688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>64</v>
       </c>
@@ -5728,7 +5720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>64</v>
       </c>
@@ -5766,7 +5758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>64</v>
       </c>
@@ -5804,7 +5796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
@@ -5842,7 +5834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>64</v>
       </c>
@@ -5880,7 +5872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>64</v>
       </c>
@@ -5918,7 +5910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>64</v>
       </c>
@@ -5956,7 +5948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>64</v>
       </c>
@@ -5994,7 +5986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -6032,7 +6024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
@@ -6070,7 +6062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>64</v>
       </c>
@@ -6108,7 +6100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>64</v>
       </c>
@@ -6146,7 +6138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>64</v>
       </c>
@@ -6184,7 +6176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>64</v>
       </c>
@@ -6222,7 +6214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>64</v>
       </c>
@@ -6260,7 +6252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>64</v>
       </c>
@@ -6298,7 +6290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>64</v>
       </c>
@@ -6336,7 +6328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>64</v>
       </c>
@@ -6374,7 +6366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>64</v>
       </c>
@@ -6412,7 +6404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>64</v>
       </c>
@@ -6450,7 +6442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>64</v>
       </c>
@@ -6488,7 +6480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>64</v>
       </c>
@@ -6526,7 +6518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>64</v>
       </c>
@@ -6564,7 +6556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>64</v>
       </c>
@@ -6602,7 +6594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>64</v>
       </c>
@@ -6640,7 +6632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>64</v>
       </c>
@@ -6669,7 +6661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>64</v>
       </c>
@@ -6704,7 +6696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>64</v>
       </c>
@@ -6777,7 +6769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>64</v>
       </c>
@@ -6815,7 +6807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>64</v>
       </c>
@@ -6850,7 +6842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>64</v>
       </c>
@@ -6879,7 +6871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>64</v>
       </c>
@@ -6917,7 +6909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>64</v>
       </c>
@@ -6955,7 +6947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>64</v>
       </c>
@@ -6993,7 +6985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>64</v>
       </c>
@@ -7031,7 +7023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>64</v>
       </c>
@@ -7069,7 +7061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>64</v>
       </c>
@@ -7107,7 +7099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>64</v>
       </c>
@@ -7142,7 +7134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>64</v>
       </c>
@@ -7212,7 +7204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>64</v>
       </c>
@@ -7282,7 +7274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>64</v>
       </c>
@@ -7308,7 +7300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>64</v>
       </c>
@@ -7343,7 +7335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>64</v>
       </c>
@@ -7378,7 +7370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>64</v>
       </c>
@@ -7413,7 +7405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>64</v>
       </c>
@@ -7448,7 +7440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>64</v>
       </c>
@@ -7483,7 +7475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>64</v>
       </c>
@@ -7518,7 +7510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>64</v>
       </c>
@@ -7588,7 +7580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>64</v>
       </c>
@@ -7646,7 +7638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>64</v>
       </c>
@@ -7681,7 +7673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>64</v>
       </c>
@@ -7719,7 +7711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>64</v>
       </c>
@@ -7754,7 +7746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>64</v>
       </c>
@@ -7789,7 +7781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>64</v>
       </c>
@@ -7824,14 +7816,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B84" t="s">
         <v>309</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E84" t="s">
@@ -7859,7 +7851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>64</v>
       </c>
@@ -7894,7 +7886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>64</v>
       </c>
@@ -7929,7 +7921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>64</v>
       </c>
@@ -7964,7 +7956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>64</v>
       </c>
@@ -8179,7 +8171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>266</v>
       </c>
@@ -8208,7 +8200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>266</v>
       </c>
@@ -8240,7 +8232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>266</v>
       </c>
@@ -8266,7 +8258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>266</v>
       </c>
@@ -8298,7 +8290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>266</v>
       </c>
@@ -8330,7 +8322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>266</v>
       </c>
@@ -8359,7 +8351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>266</v>
       </c>
@@ -8385,7 +8377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>266</v>
       </c>
@@ -8417,7 +8409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>266</v>
       </c>
@@ -8443,7 +8435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>266</v>
       </c>
@@ -8475,7 +8467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>266</v>
       </c>
@@ -8499,7 +8491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>266</v>
       </c>
@@ -8522,7 +8514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>266</v>
       </c>
@@ -8545,7 +8537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>266</v>
       </c>
@@ -8568,7 +8560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>266</v>
       </c>
@@ -8591,7 +8583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>266</v>
       </c>
@@ -8614,7 +8606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>266</v>
       </c>
@@ -8637,7 +8629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>266</v>
       </c>
@@ -8660,7 +8652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>266</v>
       </c>
@@ -8683,7 +8675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>266</v>
       </c>
@@ -8706,7 +8698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>266</v>
       </c>
@@ -8729,7 +8721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>266</v>
       </c>
@@ -8755,7 +8747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>266</v>
       </c>
@@ -8781,7 +8773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>266</v>
       </c>
@@ -8804,7 +8796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>266</v>
       </c>
@@ -8827,7 +8819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>266</v>
       </c>
@@ -8850,7 +8842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>266</v>
       </c>
@@ -8873,7 +8865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>266</v>
       </c>
@@ -8896,7 +8888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>266</v>
       </c>
@@ -8919,7 +8911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>266</v>
       </c>
@@ -8945,7 +8937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>266</v>
       </c>
@@ -8968,7 +8960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>266</v>
       </c>
@@ -8991,7 +8983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>266</v>
       </c>
@@ -9014,7 +9006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>266</v>
       </c>
@@ -9040,7 +9032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>266</v>
       </c>
@@ -9063,7 +9055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>266</v>
       </c>
@@ -9086,7 +9078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>266</v>
       </c>
@@ -9109,7 +9101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>266</v>
       </c>
@@ -9144,7 +9136,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K132"/>
+  <autoFilter ref="A1:K133">
+    <filterColumn colId="2">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E71" r:id="rId1" display="http://www.imdb.com/name/nm0863254/?ref_=tt_ov_dr"/>
@@ -9450,12 +9446,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="11.375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>563</v>
       </c>
@@ -9463,7 +9459,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>347</v>
       </c>
@@ -9472,7 +9468,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>330</v>
       </c>
@@ -9481,7 +9477,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>327</v>
       </c>
@@ -9493,7 +9489,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>336</v>
       </c>
@@ -9502,7 +9498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>346</v>
       </c>
@@ -9511,7 +9507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>560</v>
       </c>
@@ -9520,7 +9516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>405</v>
       </c>
@@ -9529,7 +9525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>355</v>
       </c>
@@ -9538,7 +9534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>400</v>
       </c>
@@ -9547,7 +9543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>559</v>
       </c>
@@ -9556,7 +9552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>414</v>
       </c>
@@ -9565,7 +9561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>558</v>
       </c>
@@ -9574,7 +9570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>557</v>
       </c>
@@ -9583,7 +9579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>556</v>
       </c>
@@ -9592,7 +9588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>555</v>
       </c>
@@ -9601,7 +9597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>554</v>
       </c>
@@ -9610,7 +9606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
         <v>322</v>
       </c>
@@ -9619,7 +9615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
         <v>553</v>
       </c>
@@ -9628,7 +9624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>236</v>
       </c>
@@ -9637,7 +9633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>409</v>
       </c>
@@ -9646,7 +9642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>552</v>
       </c>
@@ -9655,7 +9651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>551</v>
       </c>
@@ -9664,7 +9660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
         <v>550</v>
       </c>
@@ -9673,7 +9669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
         <v>549</v>
       </c>
@@ -9682,7 +9678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
         <v>548</v>
       </c>
@@ -9691,7 +9687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
         <v>547</v>
       </c>
@@ -9700,7 +9696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>83</v>
       </c>
@@ -9709,7 +9705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>546</v>
       </c>
@@ -9718,7 +9714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
         <v>545</v>
       </c>
@@ -9727,7 +9723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
         <v>544</v>
       </c>
@@ -9736,7 +9732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
         <v>339</v>
       </c>
@@ -9745,7 +9741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
         <v>85</v>
       </c>
@@ -9754,7 +9750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
         <v>86</v>
       </c>
@@ -9763,7 +9759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
         <v>543</v>
       </c>
@@ -9772,7 +9768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>542</v>
       </c>
@@ -9781,7 +9777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
         <v>541</v>
       </c>
@@ -9790,7 +9786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
         <v>540</v>
       </c>
@@ -9799,7 +9795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
         <v>539</v>
       </c>
@@ -9808,7 +9804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
         <v>538</v>
       </c>
@@ -9817,7 +9813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
         <v>537</v>
       </c>
@@ -9826,7 +9822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
         <v>536</v>
       </c>
@@ -9835,7 +9831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
         <v>535</v>
       </c>
@@ -9844,7 +9840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
         <v>534</v>
       </c>
@@ -9853,7 +9849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
         <v>533</v>
       </c>
@@ -9862,7 +9858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>532</v>
       </c>
@@ -9871,7 +9867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
         <v>290</v>
       </c>
@@ -9880,7 +9876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>26</v>
       </c>
@@ -9889,7 +9885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
         <v>59</v>
       </c>
@@ -9898,7 +9894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
         <v>126</v>
       </c>
@@ -9907,7 +9903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
         <v>531</v>
       </c>
@@ -9916,7 +9912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
         <v>530</v>
       </c>
@@ -9925,7 +9921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
         <v>529</v>
       </c>
@@ -9934,7 +9930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
         <v>163</v>
       </c>
@@ -9943,7 +9939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="18" t="s">
         <v>528</v>
       </c>
@@ -9952,7 +9948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
         <v>527</v>
       </c>
@@ -9961,7 +9957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
         <v>526</v>
       </c>
@@ -9970,7 +9966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
         <v>525</v>
       </c>
@@ -9979,7 +9975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
         <v>524</v>
       </c>
@@ -9988,7 +9984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="18" t="s">
         <v>523</v>
       </c>
@@ -9997,7 +9993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="18" t="s">
         <v>522</v>
       </c>
@@ -10006,7 +10002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="18" t="s">
         <v>521</v>
       </c>
@@ -10015,7 +10011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="18" t="s">
         <v>520</v>
       </c>
@@ -10024,7 +10020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="18" t="s">
         <v>519</v>
       </c>
@@ -10033,7 +10029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="18" t="s">
         <v>518</v>
       </c>
@@ -10042,7 +10038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="18" t="s">
         <v>517</v>
       </c>
@@ -10051,7 +10047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="18" t="s">
         <v>516</v>
       </c>
@@ -10060,7 +10056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="18" t="s">
         <v>515</v>
       </c>
@@ -10069,7 +10065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="18" t="s">
         <v>514</v>
       </c>
@@ -10078,7 +10074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="18" t="s">
         <v>513</v>
       </c>
@@ -10087,7 +10083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="18" t="s">
         <v>512</v>
       </c>
@@ -10096,7 +10092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="18" t="s">
         <v>511</v>
       </c>
@@ -10105,7 +10101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="18" t="s">
         <v>510</v>
       </c>
@@ -10114,7 +10110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="18" t="s">
         <v>509</v>
       </c>
@@ -10123,7 +10119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="18" t="s">
         <v>300</v>
       </c>
@@ -10132,7 +10128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="18" t="s">
         <v>508</v>
       </c>
@@ -10141,7 +10137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="18" t="s">
         <v>128</v>
       </c>
@@ -10150,7 +10146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="18" t="s">
         <v>507</v>
       </c>
@@ -10159,7 +10155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="18" t="s">
         <v>506</v>
       </c>
@@ -10168,7 +10164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="18" t="s">
         <v>505</v>
       </c>
@@ -10177,7 +10173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="18" t="s">
         <v>504</v>
       </c>
@@ -10186,7 +10182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="18" t="s">
         <v>503</v>
       </c>
@@ -10195,7 +10191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="18" t="s">
         <v>502</v>
       </c>
@@ -10204,7 +10200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="18" t="s">
         <v>501</v>
       </c>
@@ -10213,7 +10209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="18" t="s">
         <v>500</v>
       </c>
@@ -10222,7 +10218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="18" t="s">
         <v>499</v>
       </c>
@@ -10231,7 +10227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="18" t="s">
         <v>498</v>
       </c>
@@ -10240,7 +10236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="18" t="s">
         <v>497</v>
       </c>
@@ -10249,7 +10245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="18" t="s">
         <v>496</v>
       </c>
@@ -10258,7 +10254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="18" t="s">
         <v>495</v>
       </c>
@@ -10267,7 +10263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="18" t="s">
         <v>494</v>
       </c>
@@ -10276,7 +10272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="18" t="s">
         <v>493</v>
       </c>
@@ -10285,7 +10281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="18" t="s">
         <v>492</v>
       </c>
@@ -10294,7 +10290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="18" t="s">
         <v>491</v>
       </c>
@@ -10303,7 +10299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="18" t="s">
         <v>490</v>
       </c>
@@ -10312,7 +10308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="18" t="s">
         <v>489</v>
       </c>
@@ -10321,7 +10317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="18" t="s">
         <v>488</v>
       </c>
@@ -10330,7 +10326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="18" t="s">
         <v>487</v>
       </c>
@@ -10339,7 +10335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="18" t="s">
         <v>486</v>
       </c>
@@ -10348,7 +10344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="18" t="s">
         <v>485</v>
       </c>
@@ -10357,7 +10353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="18" t="s">
         <v>484</v>
       </c>
@@ -10366,7 +10362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="18" t="s">
         <v>483</v>
       </c>
@@ -10375,7 +10371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="18" t="s">
         <v>482</v>
       </c>
@@ -10384,7 +10380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="18" t="s">
         <v>481</v>
       </c>
@@ -10393,7 +10389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="18" t="s">
         <v>28</v>
       </c>
@@ -10402,7 +10398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="18" t="s">
         <v>480</v>
       </c>
@@ -10411,7 +10407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="18" t="s">
         <v>479</v>
       </c>
@@ -10420,7 +10416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="18" t="s">
         <v>12</v>
       </c>
@@ -10429,7 +10425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="18" t="s">
         <v>478</v>
       </c>
@@ -10438,7 +10434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="18" t="s">
         <v>477</v>
       </c>
@@ -10447,7 +10443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="18" t="s">
         <v>476</v>
       </c>
@@ -10456,7 +10452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="18" t="s">
         <v>475</v>
       </c>
@@ -10465,7 +10461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="18" t="s">
         <v>474</v>
       </c>
@@ -10474,7 +10470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="18" t="s">
         <v>473</v>
       </c>
@@ -10483,7 +10479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="18" t="s">
         <v>472</v>
       </c>
@@ -10492,7 +10488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="18" t="s">
         <v>471</v>
       </c>
@@ -10501,7 +10497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="18" t="s">
         <v>470</v>
       </c>
@@ -10510,7 +10506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="18" t="s">
         <v>469</v>
       </c>
@@ -10519,7 +10515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="18" t="s">
         <v>468</v>
       </c>
@@ -10528,7 +10524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="18" t="s">
         <v>467</v>
       </c>
@@ -10537,7 +10533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="18" t="s">
         <v>466</v>
       </c>
@@ -10546,7 +10542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="18" t="s">
         <v>465</v>
       </c>
@@ -10555,7 +10551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="18" t="s">
         <v>464</v>
       </c>
@@ -10564,7 +10560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="18" t="s">
         <v>463</v>
       </c>
@@ -10573,7 +10569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="18" t="s">
         <v>462</v>
       </c>
@@ -10582,7 +10578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="18" t="s">
         <v>461</v>
       </c>
@@ -10591,7 +10587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="18" t="s">
         <v>460</v>
       </c>
@@ -10600,7 +10596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="18" t="s">
         <v>459</v>
       </c>
@@ -10609,7 +10605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="18" t="s">
         <v>458</v>
       </c>
@@ -10618,7 +10614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="18" t="s">
         <v>457</v>
       </c>
@@ -10627,7 +10623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="18" t="s">
         <v>456</v>
       </c>
@@ -10636,7 +10632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="18" t="s">
         <v>455</v>
       </c>
@@ -10645,7 +10641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="18" t="s">
         <v>454</v>
       </c>
@@ -10654,7 +10650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="18" t="s">
         <v>453</v>
       </c>
@@ -10663,7 +10659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="18" t="s">
         <v>452</v>
       </c>
@@ -10672,7 +10668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="18" t="s">
         <v>451</v>
       </c>
@@ -10681,7 +10677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="18" t="s">
         <v>450</v>
       </c>
@@ -10690,7 +10686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="18" t="s">
         <v>449</v>
       </c>
@@ -10699,7 +10695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="18" t="s">
         <v>448</v>
       </c>
@@ -10708,7 +10704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="18" t="s">
         <v>447</v>
       </c>
@@ -10717,7 +10713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="18" t="s">
         <v>446</v>
       </c>
@@ -10726,7 +10722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="18" t="s">
         <v>445</v>
       </c>
@@ -10735,7 +10731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="18" t="s">
         <v>444</v>
       </c>
@@ -10744,7 +10740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="18" t="s">
         <v>43</v>
       </c>
@@ -10753,7 +10749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="18" t="s">
         <v>443</v>
       </c>
@@ -10762,7 +10758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="18" t="s">
         <v>442</v>
       </c>
@@ -10771,7 +10767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="18" t="s">
         <v>441</v>
       </c>
@@ -10780,7 +10776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="18" t="s">
         <v>440</v>
       </c>
@@ -10789,7 +10785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="18" t="s">
         <v>439</v>
       </c>
@@ -10798,7 +10794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="18" t="s">
         <v>438</v>
       </c>
@@ -10807,7 +10803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="18" t="s">
         <v>437</v>
       </c>
@@ -10816,7 +10812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="18" t="s">
         <v>436</v>
       </c>
@@ -10825,7 +10821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="18" t="s">
         <v>435</v>
       </c>
@@ -10834,7 +10830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="18" t="s">
         <v>434</v>
       </c>
@@ -10843,7 +10839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="18" t="s">
         <v>433</v>
       </c>
@@ -10852,7 +10848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="18" t="s">
         <v>432</v>
       </c>
@@ -10861,7 +10857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="18" t="s">
         <v>431</v>
       </c>
@@ -10870,7 +10866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="18" t="s">
         <v>430</v>
       </c>
@@ -10879,7 +10875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="18" t="s">
         <v>429</v>
       </c>
@@ -10888,7 +10884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="18" t="s">
         <v>428</v>
       </c>
@@ -10897,7 +10893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="18" t="s">
         <v>427</v>
       </c>
@@ -10906,7 +10902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="18" t="s">
         <v>426</v>
       </c>
@@ -10915,7 +10911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="18" t="s">
         <v>425</v>
       </c>
@@ -10924,7 +10920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="18" t="s">
         <v>424</v>
       </c>
@@ -10933,7 +10929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="18" t="s">
         <v>423</v>
       </c>
@@ -10942,7 +10938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="18" t="s">
         <v>54</v>
       </c>
@@ -10951,7 +10947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="18" t="s">
         <v>88</v>
       </c>
@@ -10960,7 +10956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="18" t="s">
         <v>422</v>
       </c>
@@ -10969,7 +10965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="18" t="s">
         <v>421</v>
       </c>
@@ -10978,7 +10974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="18" t="s">
         <v>420</v>
       </c>
@@ -10987,7 +10983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="18" t="s">
         <v>72</v>
       </c>
@@ -10996,670 +10992,670 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="18"/>
     </row>
-    <row r="293" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="18" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="294" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" s="18" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="295" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="18" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="296" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" s="18" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="297" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="18" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="298" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" s="18" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="299" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" s="18" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="300" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="18" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="301" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="18" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="302" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" s="18" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="303" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" s="18" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="304" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" s="18" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="305" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="18" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="306" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" s="18" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="307" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" s="18" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="308" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="18" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="309" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="18" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="310" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="18" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="311" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" s="18" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="312" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="18" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="313" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" s="18" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="314" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="18" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="315" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="18" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="316" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="18" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="317" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="318" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" s="18" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="319" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" s="18" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="320" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" s="18" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="321" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" s="18" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="322" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" s="18" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="323" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" s="18" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="324" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" s="18" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="325" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" s="18" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="326" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" s="18" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="327" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" s="18" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="328" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" s="18" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="329" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="18" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="330" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="18" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="331" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="332" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" s="18" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="333" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" s="18" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="334" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" s="18" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="335" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" s="18" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="336" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" s="18" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="337" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" s="18" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="338" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" s="18" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="339" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" s="18" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="340" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" s="18" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="341" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" s="18" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="342" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" s="18" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="343" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" s="18" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="344" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" s="18" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="345" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" s="18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="346" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" s="18" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="347" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" s="18" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="348" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" s="18" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="349" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" s="18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="350" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" s="18" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="351" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" s="18" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="352" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" s="18" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" s="18" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="354" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" s="18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="355" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" s="18" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="356" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" s="18" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="357" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" s="18" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="358" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" s="18" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="359" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" s="18" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="360" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" s="18" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="361" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" s="18" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="362" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" s="18" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="363" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" s="18" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="364" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" s="18" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="365" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" s="18" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="366" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" s="18" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="367" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" s="18" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="368" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" s="18" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" s="18" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="370" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" s="18" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="371" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" s="18" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="372" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" s="18" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="373" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" s="18" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="374" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" s="18" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="375" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" s="18" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="376" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" s="18" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="377" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" s="18" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="378" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" s="18" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="379" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" s="18" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="380" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" s="18" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="381" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" s="18" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="382" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" s="18" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="383" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" s="18" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="384" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" s="18" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="385" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" s="18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="386" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" s="18" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="387" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" s="18" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="388" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" s="18" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="389" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" s="18" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="390" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" s="18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="391" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" s="18" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="392" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" s="18" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="393" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="18" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="394" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" s="18" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="395" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" s="18" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="396" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" s="18" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="397" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" s="18" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="398" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" s="18" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="399" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" s="18" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="400" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" s="18" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="401" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" s="18" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="402" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" s="18" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="403" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" s="18" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="404" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" s="18" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="405" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" s="18" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="406" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" s="18" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="407" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" s="18" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="408" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" s="18" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="409" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" s="18" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="410" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" s="18" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="411" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" s="18" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="412" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" s="18" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="413" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" s="18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="414" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" s="18" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="415" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" s="18" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="416" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" s="18" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="417" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" s="18" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="418" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" s="18" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="419" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" s="18" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="420" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" s="18" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="421" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" s="18" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="422" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" s="18" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="423" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" s="18" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="424" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" s="18" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="425" spans="1:1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" s="18" t="s">
         <v>318</v>
       </c>
